--- a/RISC-V单周期硬布线控制器表达式自动生成.xlsx
+++ b/RISC-V单周期硬布线控制器表达式自动生成.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miles/Desktop/Computer-Organization-Big-Homework/cpu21-riscv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miles/Desktop/Computer-Organization-Big-Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CA7E5E-8AA2-DA4F-B028-9A573E70DB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5AC6A0-91BA-7C4E-A9AC-3E4D9A90C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -2289,6 +2289,60 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2326,60 +2380,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2779,8 +2779,8 @@
   </sheetPr>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U67" sqref="U67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -5035,9 +5035,7 @@
       <c r="U23" s="57"/>
       <c r="V23" s="57"/>
       <c r="W23" s="57"/>
-      <c r="X23" s="57">
-        <v>1</v>
-      </c>
+      <c r="X23" s="57"/>
       <c r="Y23" s="57"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="57"/>
@@ -5130,9 +5128,7 @@
       <c r="U24" s="31"/>
       <c r="V24" s="31"/>
       <c r="W24" s="31"/>
-      <c r="X24" s="31">
-        <v>1</v>
-      </c>
+      <c r="X24" s="31"/>
       <c r="Y24" s="31"/>
       <c r="Z24" s="31"/>
       <c r="AA24" s="31"/>
@@ -8043,9 +8039,9 @@
   </sheetPr>
   <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P58" sqref="P58"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11543,7 +11539,7 @@
       </c>
       <c r="W23" s="49" t="str">
         <f>IF(真值表!X23=1,$O23&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="X23" s="49" t="str">
         <f>IF(真值表!Y23=1,$O23&amp;"+","")</f>
@@ -11697,7 +11693,7 @@
       </c>
       <c r="W24" s="24" t="str">
         <f>IF(真值表!X24=1,$O24&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="X24" s="24" t="str">
         <f>IF(真值表!Y24=1,$O24&amp;"+","")</f>
@@ -16890,7 +16886,7 @@
       </c>
       <c r="W58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="X58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16990,7 +16986,7 @@
       </c>
       <c r="W59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="3"/>
@@ -17691,48 +17687,48 @@
       <c r="B2" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="101" t="s">
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="104" t="s">
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107" t="s">
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="U2" s="99"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="108" t="s">
+      <c r="U2" s="117"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="107" t="s">
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="100"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="117"/>
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="118"/>
       <c r="AG2" s="74">
         <v>1</v>
       </c>
@@ -17768,39 +17764,39 @@
       <c r="I3" s="78">
         <v>0</v>
       </c>
-      <c r="J3" s="111" t="s">
+      <c r="J3" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111" t="s">
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111">
-        <v>0</v>
-      </c>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111" t="s">
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101">
+        <v>0</v>
+      </c>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111" t="s">
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="111"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
       <c r="AG3" s="79">
         <v>1</v>
       </c>
@@ -17836,39 +17832,39 @@
       <c r="I4" s="78">
         <v>0</v>
       </c>
-      <c r="J4" s="111" t="s">
+      <c r="J4" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111" t="s">
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111">
-        <v>0</v>
-      </c>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="111" t="s">
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101">
+        <v>0</v>
+      </c>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="111"/>
-      <c r="AA4" s="111"/>
-      <c r="AB4" s="111" t="s">
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC4" s="111"/>
-      <c r="AD4" s="111"/>
-      <c r="AE4" s="111"/>
-      <c r="AF4" s="111"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
       <c r="AG4" s="79">
         <v>1</v>
       </c>
@@ -17904,39 +17900,39 @@
       <c r="I5" s="78">
         <v>0</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111" t="s">
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111">
-        <v>1</v>
-      </c>
-      <c r="U5" s="111"/>
-      <c r="V5" s="111"/>
-      <c r="W5" s="111" t="s">
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101">
+        <v>1</v>
+      </c>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="111"/>
-      <c r="AB5" s="111" t="s">
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC5" s="111"/>
-      <c r="AD5" s="111"/>
-      <c r="AE5" s="111"/>
-      <c r="AF5" s="111"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="101"/>
+      <c r="AF5" s="101"/>
       <c r="AG5" s="79">
         <v>1</v>
       </c>
@@ -17972,39 +17968,39 @@
       <c r="I6" s="78">
         <v>0</v>
       </c>
-      <c r="J6" s="111" t="s">
+      <c r="J6" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111" t="s">
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111">
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101">
         <v>2</v>
       </c>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111" t="s">
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111"/>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111" t="s">
+      <c r="X6" s="101"/>
+      <c r="Y6" s="101"/>
+      <c r="Z6" s="101"/>
+      <c r="AA6" s="101"/>
+      <c r="AB6" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="111"/>
-      <c r="AF6" s="111"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="101"/>
+      <c r="AF6" s="101"/>
       <c r="AG6" s="79">
         <v>1</v>
       </c>
@@ -18040,39 +18036,39 @@
       <c r="I7" s="78">
         <v>0</v>
       </c>
-      <c r="J7" s="111" t="s">
+      <c r="J7" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111" t="s">
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111">
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101">
         <v>3</v>
       </c>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111" t="s">
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="111" t="s">
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="111"/>
-      <c r="AF7" s="111"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
       <c r="AG7" s="79">
         <v>1</v>
       </c>
@@ -18108,39 +18104,39 @@
       <c r="I8" s="78">
         <v>0</v>
       </c>
-      <c r="J8" s="111" t="s">
+      <c r="J8" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111" t="s">
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111">
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101">
         <v>4</v>
       </c>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111" t="s">
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="111" t="s">
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="111"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
       <c r="AG8" s="79">
         <v>1</v>
       </c>
@@ -18176,39 +18172,39 @@
       <c r="I9" s="78">
         <v>0</v>
       </c>
-      <c r="J9" s="111" t="s">
+      <c r="J9" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111" t="s">
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111">
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101">
         <v>5</v>
       </c>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="111" t="s">
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="111" t="s">
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="111"/>
-      <c r="AF9" s="111"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="101"/>
       <c r="AG9" s="79">
         <v>1</v>
       </c>
@@ -18244,39 +18240,39 @@
       <c r="I10" s="78">
         <v>0</v>
       </c>
-      <c r="J10" s="111" t="s">
+      <c r="J10" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111" t="s">
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111">
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101">
         <v>5</v>
       </c>
-      <c r="U10" s="111"/>
-      <c r="V10" s="111"/>
-      <c r="W10" s="111" t="s">
+      <c r="U10" s="101"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="111"/>
-      <c r="AB10" s="111" t="s">
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="111"/>
-      <c r="AF10" s="111"/>
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="101"/>
+      <c r="AF10" s="101"/>
       <c r="AG10" s="79">
         <v>1</v>
       </c>
@@ -18312,39 +18308,39 @@
       <c r="I11" s="78">
         <v>0</v>
       </c>
-      <c r="J11" s="111" t="s">
+      <c r="J11" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111" t="s">
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111">
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101">
         <v>6</v>
       </c>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="111" t="s">
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="111"/>
-      <c r="AB11" s="111" t="s">
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="111"/>
-      <c r="AF11" s="111"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="101"/>
+      <c r="AE11" s="101"/>
+      <c r="AF11" s="101"/>
       <c r="AG11" s="79">
         <v>1</v>
       </c>
@@ -18380,39 +18376,39 @@
       <c r="I12" s="78">
         <v>0</v>
       </c>
-      <c r="J12" s="111" t="s">
+      <c r="J12" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111" t="s">
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111">
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101">
         <v>7</v>
       </c>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="111" t="s">
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X12" s="111"/>
-      <c r="Y12" s="111"/>
-      <c r="Z12" s="111"/>
-      <c r="AA12" s="111"/>
-      <c r="AB12" s="111" t="s">
+      <c r="X12" s="101"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="101"/>
+      <c r="AB12" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="111"/>
-      <c r="AE12" s="111"/>
-      <c r="AF12" s="111"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="101"/>
+      <c r="AF12" s="101"/>
       <c r="AG12" s="79">
         <v>1</v>
       </c>
@@ -18448,39 +18444,39 @@
       <c r="I13" s="81">
         <v>1</v>
       </c>
-      <c r="J13" s="111" t="s">
+      <c r="J13" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111" t="s">
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111">
-        <v>0</v>
-      </c>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="111" t="s">
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101">
+        <v>0</v>
+      </c>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="111" t="s">
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="111"/>
-      <c r="AF13" s="111"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="101"/>
+      <c r="AE13" s="101"/>
+      <c r="AF13" s="101"/>
       <c r="AG13" s="79">
         <v>1</v>
       </c>
@@ -18516,39 +18512,39 @@
       <c r="I14" s="81">
         <v>1</v>
       </c>
-      <c r="J14" s="111" t="s">
+      <c r="J14" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111" t="s">
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111">
-        <v>1</v>
-      </c>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111"/>
-      <c r="W14" s="111" t="s">
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101">
+        <v>1</v>
+      </c>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="111"/>
-      <c r="Z14" s="111"/>
-      <c r="AA14" s="111"/>
-      <c r="AB14" s="111" t="s">
+      <c r="X14" s="101"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="101"/>
+      <c r="AA14" s="101"/>
+      <c r="AB14" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="111"/>
-      <c r="AE14" s="111"/>
-      <c r="AF14" s="111"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="101"/>
+      <c r="AF14" s="101"/>
       <c r="AG14" s="79">
         <v>1</v>
       </c>
@@ -18584,39 +18580,39 @@
       <c r="I15" s="81">
         <v>1</v>
       </c>
-      <c r="J15" s="111" t="s">
+      <c r="J15" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111" t="s">
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111">
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="101">
         <v>2</v>
       </c>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111"/>
-      <c r="W15" s="111" t="s">
+      <c r="U15" s="101"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="111"/>
-      <c r="AA15" s="111"/>
-      <c r="AB15" s="111" t="s">
+      <c r="X15" s="101"/>
+      <c r="Y15" s="101"/>
+      <c r="Z15" s="101"/>
+      <c r="AA15" s="101"/>
+      <c r="AB15" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC15" s="111"/>
-      <c r="AD15" s="111"/>
-      <c r="AE15" s="111"/>
-      <c r="AF15" s="111"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="101"/>
+      <c r="AE15" s="101"/>
+      <c r="AF15" s="101"/>
       <c r="AG15" s="79">
         <v>1</v>
       </c>
@@ -18652,39 +18648,39 @@
       <c r="I16" s="81">
         <v>1</v>
       </c>
-      <c r="J16" s="111" t="s">
+      <c r="J16" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="111" t="s">
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111">
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101">
         <v>3</v>
       </c>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
-      <c r="W16" s="111" t="s">
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X16" s="111"/>
-      <c r="Y16" s="111"/>
-      <c r="Z16" s="111"/>
-      <c r="AA16" s="111"/>
-      <c r="AB16" s="111" t="s">
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC16" s="111"/>
-      <c r="AD16" s="111"/>
-      <c r="AE16" s="111"/>
-      <c r="AF16" s="111"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="101"/>
       <c r="AG16" s="79">
         <v>1</v>
       </c>
@@ -18720,39 +18716,39 @@
       <c r="I17" s="81">
         <v>1</v>
       </c>
-      <c r="J17" s="111" t="s">
+      <c r="J17" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111" t="s">
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="111">
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101">
         <v>4</v>
       </c>
-      <c r="U17" s="111"/>
-      <c r="V17" s="111"/>
-      <c r="W17" s="111" t="s">
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X17" s="111"/>
-      <c r="Y17" s="111"/>
-      <c r="Z17" s="111"/>
-      <c r="AA17" s="111"/>
-      <c r="AB17" s="111" t="s">
+      <c r="X17" s="101"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="101"/>
+      <c r="AA17" s="101"/>
+      <c r="AB17" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC17" s="111"/>
-      <c r="AD17" s="111"/>
-      <c r="AE17" s="111"/>
-      <c r="AF17" s="111"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="101"/>
+      <c r="AE17" s="101"/>
+      <c r="AF17" s="101"/>
       <c r="AG17" s="79">
         <v>1</v>
       </c>
@@ -18788,39 +18784,39 @@
       <c r="I18" s="81">
         <v>1</v>
       </c>
-      <c r="J18" s="111" t="s">
+      <c r="J18" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="111" t="s">
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111">
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="101">
         <v>5</v>
       </c>
-      <c r="U18" s="111"/>
-      <c r="V18" s="111"/>
-      <c r="W18" s="111" t="s">
+      <c r="U18" s="101"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X18" s="111"/>
-      <c r="Y18" s="111"/>
-      <c r="Z18" s="111"/>
-      <c r="AA18" s="111"/>
-      <c r="AB18" s="111" t="s">
+      <c r="X18" s="101"/>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="101"/>
+      <c r="AA18" s="101"/>
+      <c r="AB18" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC18" s="111"/>
-      <c r="AD18" s="111"/>
-      <c r="AE18" s="111"/>
-      <c r="AF18" s="111"/>
+      <c r="AC18" s="101"/>
+      <c r="AD18" s="101"/>
+      <c r="AE18" s="101"/>
+      <c r="AF18" s="101"/>
       <c r="AG18" s="79">
         <v>1</v>
       </c>
@@ -18856,39 +18852,39 @@
       <c r="I19" s="81">
         <v>1</v>
       </c>
-      <c r="J19" s="111" t="s">
+      <c r="J19" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111" t="s">
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="111">
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101">
         <v>6</v>
       </c>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111"/>
-      <c r="W19" s="111" t="s">
+      <c r="U19" s="101"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X19" s="111"/>
-      <c r="Y19" s="111"/>
-      <c r="Z19" s="111"/>
-      <c r="AA19" s="111"/>
-      <c r="AB19" s="111" t="s">
+      <c r="X19" s="101"/>
+      <c r="Y19" s="101"/>
+      <c r="Z19" s="101"/>
+      <c r="AA19" s="101"/>
+      <c r="AB19" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC19" s="111"/>
-      <c r="AD19" s="111"/>
-      <c r="AE19" s="111"/>
-      <c r="AF19" s="111"/>
+      <c r="AC19" s="101"/>
+      <c r="AD19" s="101"/>
+      <c r="AE19" s="101"/>
+      <c r="AF19" s="101"/>
       <c r="AG19" s="79">
         <v>1</v>
       </c>
@@ -18924,39 +18920,39 @@
       <c r="I20" s="81">
         <v>1</v>
       </c>
-      <c r="J20" s="111" t="s">
+      <c r="J20" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="111" t="s">
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111">
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="101">
         <v>7</v>
       </c>
-      <c r="U20" s="111"/>
-      <c r="V20" s="111"/>
-      <c r="W20" s="111" t="s">
+      <c r="U20" s="101"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X20" s="111"/>
-      <c r="Y20" s="111"/>
-      <c r="Z20" s="111"/>
-      <c r="AA20" s="111"/>
-      <c r="AB20" s="111" t="s">
+      <c r="X20" s="101"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="101"/>
+      <c r="AA20" s="101"/>
+      <c r="AB20" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="111"/>
-      <c r="AE20" s="111"/>
-      <c r="AF20" s="111"/>
+      <c r="AC20" s="101"/>
+      <c r="AD20" s="101"/>
+      <c r="AE20" s="101"/>
+      <c r="AF20" s="101"/>
       <c r="AG20" s="79">
         <v>1</v>
       </c>
@@ -19097,20 +19093,20 @@
         <v>146</v>
       </c>
       <c r="B22" s="73"/>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
       <c r="O22" s="113" t="s">
         <v>121</v>
       </c>
@@ -19118,25 +19114,25 @@
       <c r="Q22" s="113"/>
       <c r="R22" s="113"/>
       <c r="S22" s="113"/>
-      <c r="T22" s="114" t="s">
+      <c r="T22" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="U22" s="114"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="115" t="s">
+      <c r="U22" s="107"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="X22" s="115"/>
-      <c r="Y22" s="115"/>
-      <c r="Z22" s="115"/>
-      <c r="AA22" s="115"/>
-      <c r="AB22" s="114" t="s">
+      <c r="X22" s="106"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="106"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="AC22" s="114"/>
-      <c r="AD22" s="114"/>
-      <c r="AE22" s="114"/>
-      <c r="AF22" s="114"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="107"/>
+      <c r="AE22" s="107"/>
+      <c r="AF22" s="107"/>
       <c r="AG22" s="83">
         <v>1</v>
       </c>
@@ -19151,46 +19147,46 @@
       <c r="B23" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="111" t="s">
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="111"/>
-      <c r="S23" s="111"/>
-      <c r="T23" s="111">
-        <v>0</v>
-      </c>
-      <c r="U23" s="111"/>
-      <c r="V23" s="111"/>
-      <c r="W23" s="111" t="s">
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="101">
+        <v>0</v>
+      </c>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X23" s="111"/>
-      <c r="Y23" s="111"/>
-      <c r="Z23" s="111"/>
-      <c r="AA23" s="111"/>
-      <c r="AB23" s="111">
+      <c r="X23" s="101"/>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="101"/>
+      <c r="AA23" s="101"/>
+      <c r="AB23" s="101">
         <v>4</v>
       </c>
-      <c r="AC23" s="111"/>
-      <c r="AD23" s="111"/>
-      <c r="AE23" s="111"/>
-      <c r="AF23" s="111"/>
+      <c r="AC23" s="101"/>
+      <c r="AD23" s="101"/>
+      <c r="AE23" s="101"/>
+      <c r="AF23" s="101"/>
       <c r="AG23" s="79">
         <v>1</v>
       </c>
@@ -19226,39 +19222,39 @@
       <c r="I24" s="78">
         <v>0</v>
       </c>
-      <c r="J24" s="116" t="s">
+      <c r="J24" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="111" t="s">
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="111">
-        <v>1</v>
-      </c>
-      <c r="U24" s="111"/>
-      <c r="V24" s="111"/>
-      <c r="W24" s="111" t="s">
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="101"/>
+      <c r="T24" s="101">
+        <v>1</v>
+      </c>
+      <c r="U24" s="101"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X24" s="111"/>
-      <c r="Y24" s="111"/>
-      <c r="Z24" s="111"/>
-      <c r="AA24" s="111"/>
-      <c r="AB24" s="111">
+      <c r="X24" s="101"/>
+      <c r="Y24" s="101"/>
+      <c r="Z24" s="101"/>
+      <c r="AA24" s="101"/>
+      <c r="AB24" s="101">
         <v>4</v>
       </c>
-      <c r="AC24" s="111"/>
-      <c r="AD24" s="111"/>
-      <c r="AE24" s="111"/>
-      <c r="AF24" s="111"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="101"/>
+      <c r="AE24" s="101"/>
+      <c r="AF24" s="101"/>
       <c r="AG24" s="79">
         <v>1</v>
       </c>
@@ -19273,46 +19269,46 @@
       <c r="B25" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="111" t="s">
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111">
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101">
         <v>2</v>
       </c>
-      <c r="U25" s="111"/>
-      <c r="V25" s="111"/>
-      <c r="W25" s="111" t="s">
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X25" s="111"/>
-      <c r="Y25" s="111"/>
-      <c r="Z25" s="111"/>
-      <c r="AA25" s="111"/>
-      <c r="AB25" s="111">
+      <c r="X25" s="101"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="101"/>
+      <c r="AA25" s="101"/>
+      <c r="AB25" s="101">
         <v>4</v>
       </c>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="111"/>
-      <c r="AE25" s="111"/>
-      <c r="AF25" s="111"/>
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="101"/>
+      <c r="AE25" s="101"/>
+      <c r="AF25" s="101"/>
       <c r="AG25" s="79">
         <v>1</v>
       </c>
@@ -19327,46 +19323,46 @@
       <c r="B26" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="111" t="s">
+      <c r="C26" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="111" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111">
+      <c r="P26" s="101"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="101">
         <v>3</v>
       </c>
-      <c r="U26" s="111"/>
-      <c r="V26" s="111"/>
-      <c r="W26" s="111" t="s">
+      <c r="U26" s="101"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X26" s="111"/>
-      <c r="Y26" s="111"/>
-      <c r="Z26" s="111"/>
-      <c r="AA26" s="111"/>
-      <c r="AB26" s="111">
+      <c r="X26" s="101"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="101"/>
+      <c r="AA26" s="101"/>
+      <c r="AB26" s="101">
         <v>4</v>
       </c>
-      <c r="AC26" s="111"/>
-      <c r="AD26" s="111"/>
-      <c r="AE26" s="111"/>
-      <c r="AF26" s="111"/>
+      <c r="AC26" s="101"/>
+      <c r="AD26" s="101"/>
+      <c r="AE26" s="101"/>
+      <c r="AF26" s="101"/>
       <c r="AG26" s="79">
         <v>1</v>
       </c>
@@ -19381,46 +19377,46 @@
       <c r="B27" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="111" t="s">
+      <c r="C27" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111" t="s">
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111">
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101">
         <v>4</v>
       </c>
-      <c r="U27" s="111"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="111" t="s">
+      <c r="U27" s="101"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X27" s="111"/>
-      <c r="Y27" s="111"/>
-      <c r="Z27" s="111"/>
-      <c r="AA27" s="111"/>
-      <c r="AB27" s="111">
+      <c r="X27" s="101"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="101"/>
+      <c r="AA27" s="101"/>
+      <c r="AB27" s="101">
         <v>4</v>
       </c>
-      <c r="AC27" s="111"/>
-      <c r="AD27" s="111"/>
-      <c r="AE27" s="111"/>
-      <c r="AF27" s="111"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="101"/>
+      <c r="AE27" s="101"/>
+      <c r="AF27" s="101"/>
       <c r="AG27" s="79">
         <v>1</v>
       </c>
@@ -19456,39 +19452,39 @@
       <c r="I28" s="78">
         <v>0</v>
       </c>
-      <c r="J28" s="116" t="s">
+      <c r="J28" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="111" t="s">
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111">
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101">
         <v>5</v>
       </c>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="111" t="s">
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X28" s="111"/>
-      <c r="Y28" s="111"/>
-      <c r="Z28" s="111"/>
-      <c r="AA28" s="111"/>
-      <c r="AB28" s="111">
+      <c r="X28" s="101"/>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="101"/>
+      <c r="AA28" s="101"/>
+      <c r="AB28" s="101">
         <v>4</v>
       </c>
-      <c r="AC28" s="111"/>
-      <c r="AD28" s="111"/>
-      <c r="AE28" s="111"/>
-      <c r="AF28" s="111"/>
+      <c r="AC28" s="101"/>
+      <c r="AD28" s="101"/>
+      <c r="AE28" s="101"/>
+      <c r="AF28" s="101"/>
       <c r="AG28" s="79">
         <v>1</v>
       </c>
@@ -19524,39 +19520,39 @@
       <c r="I29" s="78">
         <v>0</v>
       </c>
-      <c r="J29" s="116" t="s">
+      <c r="J29" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="111" t="s">
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111">
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101">
         <v>5</v>
       </c>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="111" t="s">
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X29" s="111"/>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="111"/>
-      <c r="AA29" s="111"/>
-      <c r="AB29" s="111">
+      <c r="X29" s="101"/>
+      <c r="Y29" s="101"/>
+      <c r="Z29" s="101"/>
+      <c r="AA29" s="101"/>
+      <c r="AB29" s="101">
         <v>4</v>
       </c>
-      <c r="AC29" s="111"/>
-      <c r="AD29" s="111"/>
-      <c r="AE29" s="111"/>
-      <c r="AF29" s="111"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="101"/>
+      <c r="AE29" s="101"/>
+      <c r="AF29" s="101"/>
       <c r="AG29" s="79">
         <v>1</v>
       </c>
@@ -19571,46 +19567,46 @@
       <c r="B30" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="111" t="s">
+      <c r="C30" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="111" t="s">
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111">
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="101">
         <v>6</v>
       </c>
-      <c r="U30" s="111"/>
-      <c r="V30" s="111"/>
-      <c r="W30" s="111" t="s">
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X30" s="111"/>
-      <c r="Y30" s="111"/>
-      <c r="Z30" s="111"/>
-      <c r="AA30" s="111"/>
-      <c r="AB30" s="111">
+      <c r="X30" s="101"/>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="101"/>
+      <c r="AA30" s="101"/>
+      <c r="AB30" s="101">
         <v>4</v>
       </c>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="111"/>
-      <c r="AE30" s="111"/>
-      <c r="AF30" s="111"/>
+      <c r="AC30" s="101"/>
+      <c r="AD30" s="101"/>
+      <c r="AE30" s="101"/>
+      <c r="AF30" s="101"/>
       <c r="AG30" s="79">
         <v>1</v>
       </c>
@@ -19625,46 +19621,46 @@
       <c r="B31" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="117" t="s">
+      <c r="C31" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="117" t="s">
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="117"/>
-      <c r="S31" s="117"/>
-      <c r="T31" s="117">
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="108">
         <v>7</v>
       </c>
-      <c r="U31" s="117"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="117" t="s">
+      <c r="U31" s="108"/>
+      <c r="V31" s="108"/>
+      <c r="W31" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="X31" s="117"/>
-      <c r="Y31" s="117"/>
-      <c r="Z31" s="117"/>
-      <c r="AA31" s="117"/>
-      <c r="AB31" s="117">
+      <c r="X31" s="108"/>
+      <c r="Y31" s="108"/>
+      <c r="Z31" s="108"/>
+      <c r="AA31" s="108"/>
+      <c r="AB31" s="108">
         <v>4</v>
       </c>
-      <c r="AC31" s="117"/>
-      <c r="AD31" s="117"/>
-      <c r="AE31" s="117"/>
-      <c r="AF31" s="117"/>
+      <c r="AC31" s="108"/>
+      <c r="AD31" s="108"/>
+      <c r="AE31" s="108"/>
+      <c r="AF31" s="108"/>
       <c r="AG31" s="87">
         <v>1</v>
       </c>
@@ -19679,46 +19675,46 @@
       <c r="B32" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C32" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="118"/>
-      <c r="O32" s="118" t="s">
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="118">
-        <v>0</v>
-      </c>
-      <c r="U32" s="118"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="118" t="s">
+      <c r="P32" s="114"/>
+      <c r="Q32" s="114"/>
+      <c r="R32" s="114"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="114">
+        <v>0</v>
+      </c>
+      <c r="U32" s="114"/>
+      <c r="V32" s="114"/>
+      <c r="W32" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="X32" s="118"/>
-      <c r="Y32" s="118"/>
-      <c r="Z32" s="118"/>
-      <c r="AA32" s="118"/>
-      <c r="AB32" s="118">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="118"/>
-      <c r="AD32" s="118"/>
-      <c r="AE32" s="118"/>
-      <c r="AF32" s="118"/>
+      <c r="X32" s="114"/>
+      <c r="Y32" s="114"/>
+      <c r="Z32" s="114"/>
+      <c r="AA32" s="114"/>
+      <c r="AB32" s="114">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="114"/>
+      <c r="AD32" s="114"/>
+      <c r="AE32" s="114"/>
+      <c r="AF32" s="114"/>
       <c r="AG32" s="88">
         <v>1</v>
       </c>
@@ -19733,46 +19729,46 @@
       <c r="B33" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="118" t="s">
+      <c r="C33" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="118" t="s">
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="P33" s="118"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="118"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="118">
-        <v>1</v>
-      </c>
-      <c r="U33" s="118"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="118" t="s">
+      <c r="P33" s="114"/>
+      <c r="Q33" s="114"/>
+      <c r="R33" s="114"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114">
+        <v>1</v>
+      </c>
+      <c r="U33" s="114"/>
+      <c r="V33" s="114"/>
+      <c r="W33" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="X33" s="118"/>
-      <c r="Y33" s="118"/>
-      <c r="Z33" s="118"/>
-      <c r="AA33" s="118"/>
-      <c r="AB33" s="118">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="118"/>
-      <c r="AD33" s="118"/>
-      <c r="AE33" s="118"/>
-      <c r="AF33" s="118"/>
+      <c r="X33" s="114"/>
+      <c r="Y33" s="114"/>
+      <c r="Z33" s="114"/>
+      <c r="AA33" s="114"/>
+      <c r="AB33" s="114">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="114"/>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="114"/>
+      <c r="AF33" s="114"/>
       <c r="AG33" s="88">
         <v>1</v>
       </c>
@@ -19787,46 +19783,46 @@
       <c r="B34" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="118" t="s">
+      <c r="C34" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="118" t="s">
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="P34" s="118"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118">
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114">
         <v>2</v>
       </c>
-      <c r="U34" s="118"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="118" t="s">
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="X34" s="118"/>
-      <c r="Y34" s="118"/>
-      <c r="Z34" s="118"/>
-      <c r="AA34" s="118"/>
-      <c r="AB34" s="118">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="118"/>
-      <c r="AD34" s="118"/>
-      <c r="AE34" s="118"/>
-      <c r="AF34" s="118"/>
+      <c r="X34" s="114"/>
+      <c r="Y34" s="114"/>
+      <c r="Z34" s="114"/>
+      <c r="AA34" s="114"/>
+      <c r="AB34" s="114">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="114"/>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="114"/>
+      <c r="AF34" s="114"/>
       <c r="AG34" s="88">
         <v>1</v>
       </c>
@@ -19841,46 +19837,46 @@
       <c r="B35" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="118" t="s">
+      <c r="C35" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="118" t="s">
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="P35" s="118"/>
-      <c r="Q35" s="118"/>
-      <c r="R35" s="118"/>
-      <c r="S35" s="118"/>
-      <c r="T35" s="118">
+      <c r="P35" s="114"/>
+      <c r="Q35" s="114"/>
+      <c r="R35" s="114"/>
+      <c r="S35" s="114"/>
+      <c r="T35" s="114">
         <v>4</v>
       </c>
-      <c r="U35" s="118"/>
-      <c r="V35" s="118"/>
-      <c r="W35" s="118" t="s">
+      <c r="U35" s="114"/>
+      <c r="V35" s="114"/>
+      <c r="W35" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="X35" s="118"/>
-      <c r="Y35" s="118"/>
-      <c r="Z35" s="118"/>
-      <c r="AA35" s="118"/>
-      <c r="AB35" s="118">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="118"/>
-      <c r="AD35" s="118"/>
-      <c r="AE35" s="118"/>
-      <c r="AF35" s="118"/>
+      <c r="X35" s="114"/>
+      <c r="Y35" s="114"/>
+      <c r="Z35" s="114"/>
+      <c r="AA35" s="114"/>
+      <c r="AB35" s="114">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="114"/>
+      <c r="AD35" s="114"/>
+      <c r="AE35" s="114"/>
+      <c r="AF35" s="114"/>
       <c r="AG35" s="88">
         <v>1</v>
       </c>
@@ -19895,46 +19891,46 @@
       <c r="B36" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="118" t="s">
+      <c r="C36" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="118"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="118" t="s">
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="P36" s="118"/>
-      <c r="Q36" s="118"/>
-      <c r="R36" s="118"/>
-      <c r="S36" s="118"/>
-      <c r="T36" s="118">
+      <c r="P36" s="114"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="114"/>
+      <c r="S36" s="114"/>
+      <c r="T36" s="114">
         <v>5</v>
       </c>
-      <c r="U36" s="118"/>
-      <c r="V36" s="118"/>
-      <c r="W36" s="118" t="s">
+      <c r="U36" s="114"/>
+      <c r="V36" s="114"/>
+      <c r="W36" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="X36" s="118"/>
-      <c r="Y36" s="118"/>
-      <c r="Z36" s="118"/>
-      <c r="AA36" s="118"/>
-      <c r="AB36" s="118">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="118"/>
-      <c r="AD36" s="118"/>
-      <c r="AE36" s="118"/>
-      <c r="AF36" s="118"/>
+      <c r="X36" s="114"/>
+      <c r="Y36" s="114"/>
+      <c r="Z36" s="114"/>
+      <c r="AA36" s="114"/>
+      <c r="AB36" s="114">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="114"/>
+      <c r="AD36" s="114"/>
+      <c r="AE36" s="114"/>
+      <c r="AF36" s="114"/>
       <c r="AG36" s="88">
         <v>1</v>
       </c>
@@ -19949,46 +19945,46 @@
       <c r="B37" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="117" t="s">
+      <c r="C37" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="117"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="117" t="s">
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="108"/>
+      <c r="N37" s="108"/>
+      <c r="O37" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="117"/>
-      <c r="Q37" s="117"/>
-      <c r="R37" s="117"/>
-      <c r="S37" s="117"/>
-      <c r="T37" s="117">
-        <v>0</v>
-      </c>
-      <c r="U37" s="117"/>
-      <c r="V37" s="117"/>
-      <c r="W37" s="117" t="s">
+      <c r="P37" s="108"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="108"/>
+      <c r="S37" s="108"/>
+      <c r="T37" s="108">
+        <v>0</v>
+      </c>
+      <c r="U37" s="108"/>
+      <c r="V37" s="108"/>
+      <c r="W37" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="X37" s="117"/>
-      <c r="Y37" s="117"/>
-      <c r="Z37" s="117"/>
-      <c r="AA37" s="117"/>
-      <c r="AB37" s="118" t="s">
+      <c r="X37" s="108"/>
+      <c r="Y37" s="108"/>
+      <c r="Z37" s="108"/>
+      <c r="AA37" s="108"/>
+      <c r="AB37" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="AC37" s="118"/>
-      <c r="AD37" s="118"/>
-      <c r="AE37" s="118"/>
-      <c r="AF37" s="118"/>
+      <c r="AC37" s="114"/>
+      <c r="AD37" s="114"/>
+      <c r="AE37" s="114"/>
+      <c r="AF37" s="114"/>
       <c r="AG37" s="87">
         <v>1</v>
       </c>
@@ -20003,46 +19999,46 @@
       <c r="B38" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="117" t="s">
+      <c r="C38" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="117" t="s">
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="108"/>
+      <c r="N38" s="108"/>
+      <c r="O38" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="P38" s="117"/>
-      <c r="Q38" s="117"/>
-      <c r="R38" s="117"/>
-      <c r="S38" s="117"/>
-      <c r="T38" s="117">
-        <v>0</v>
-      </c>
-      <c r="U38" s="117"/>
-      <c r="V38" s="117"/>
-      <c r="W38" s="117" t="s">
+      <c r="P38" s="108"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="108"/>
+      <c r="T38" s="108">
+        <v>0</v>
+      </c>
+      <c r="U38" s="108"/>
+      <c r="V38" s="108"/>
+      <c r="W38" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="X38" s="117"/>
-      <c r="Y38" s="117"/>
-      <c r="Z38" s="117"/>
-      <c r="AA38" s="117"/>
-      <c r="AB38" s="118" t="s">
+      <c r="X38" s="108"/>
+      <c r="Y38" s="108"/>
+      <c r="Z38" s="108"/>
+      <c r="AA38" s="108"/>
+      <c r="AB38" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="AC38" s="118"/>
-      <c r="AD38" s="118"/>
-      <c r="AE38" s="118"/>
-      <c r="AF38" s="118"/>
+      <c r="AC38" s="114"/>
+      <c r="AD38" s="114"/>
+      <c r="AE38" s="114"/>
+      <c r="AF38" s="114"/>
       <c r="AG38" s="87">
         <v>1</v>
       </c>
@@ -20057,46 +20053,46 @@
       <c r="B39" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="117" t="s">
+      <c r="C39" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="117"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="117"/>
-      <c r="O39" s="117" t="s">
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="108"/>
+      <c r="O39" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="117"/>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="117"/>
-      <c r="S39" s="117"/>
-      <c r="T39" s="117">
-        <v>1</v>
-      </c>
-      <c r="U39" s="117"/>
-      <c r="V39" s="117"/>
-      <c r="W39" s="117" t="s">
+      <c r="P39" s="108"/>
+      <c r="Q39" s="108"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="108"/>
+      <c r="T39" s="108">
+        <v>1</v>
+      </c>
+      <c r="U39" s="108"/>
+      <c r="V39" s="108"/>
+      <c r="W39" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="X39" s="117"/>
-      <c r="Y39" s="117"/>
-      <c r="Z39" s="117"/>
-      <c r="AA39" s="117"/>
-      <c r="AB39" s="118" t="s">
+      <c r="X39" s="108"/>
+      <c r="Y39" s="108"/>
+      <c r="Z39" s="108"/>
+      <c r="AA39" s="108"/>
+      <c r="AB39" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="AC39" s="118"/>
-      <c r="AD39" s="118"/>
-      <c r="AE39" s="118"/>
-      <c r="AF39" s="118"/>
+      <c r="AC39" s="114"/>
+      <c r="AD39" s="114"/>
+      <c r="AE39" s="114"/>
+      <c r="AF39" s="114"/>
       <c r="AG39" s="87">
         <v>1</v>
       </c>
@@ -20147,32 +20143,32 @@
       <c r="N40" s="82">
         <v>0</v>
       </c>
-      <c r="O40" s="117">
-        <v>0</v>
-      </c>
-      <c r="P40" s="117"/>
-      <c r="Q40" s="117"/>
-      <c r="R40" s="117"/>
-      <c r="S40" s="117"/>
-      <c r="T40" s="117">
-        <v>0</v>
-      </c>
-      <c r="U40" s="117"/>
-      <c r="V40" s="117"/>
-      <c r="W40" s="117">
-        <v>0</v>
-      </c>
-      <c r="X40" s="117"/>
-      <c r="Y40" s="117"/>
-      <c r="Z40" s="117"/>
-      <c r="AA40" s="117"/>
-      <c r="AB40" s="118" t="s">
+      <c r="O40" s="108">
+        <v>0</v>
+      </c>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="108">
+        <v>0</v>
+      </c>
+      <c r="U40" s="108"/>
+      <c r="V40" s="108"/>
+      <c r="W40" s="108">
+        <v>0</v>
+      </c>
+      <c r="X40" s="108"/>
+      <c r="Y40" s="108"/>
+      <c r="Z40" s="108"/>
+      <c r="AA40" s="108"/>
+      <c r="AB40" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="AC40" s="118"/>
-      <c r="AD40" s="118"/>
-      <c r="AE40" s="118"/>
-      <c r="AF40" s="118"/>
+      <c r="AC40" s="114"/>
+      <c r="AD40" s="114"/>
+      <c r="AE40" s="114"/>
+      <c r="AF40" s="114"/>
       <c r="AG40" s="87">
         <v>1</v>
       </c>
@@ -20223,32 +20219,32 @@
       <c r="N41" s="81">
         <v>1</v>
       </c>
-      <c r="O41" s="117">
-        <v>0</v>
-      </c>
-      <c r="P41" s="117"/>
-      <c r="Q41" s="117"/>
-      <c r="R41" s="117"/>
-      <c r="S41" s="117"/>
-      <c r="T41" s="117">
-        <v>0</v>
-      </c>
-      <c r="U41" s="117"/>
-      <c r="V41" s="117"/>
-      <c r="W41" s="117">
-        <v>0</v>
-      </c>
-      <c r="X41" s="117"/>
-      <c r="Y41" s="117"/>
-      <c r="Z41" s="117"/>
-      <c r="AA41" s="117"/>
-      <c r="AB41" s="118" t="s">
+      <c r="O41" s="108">
+        <v>0</v>
+      </c>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="108"/>
+      <c r="R41" s="108"/>
+      <c r="S41" s="108"/>
+      <c r="T41" s="108">
+        <v>0</v>
+      </c>
+      <c r="U41" s="108"/>
+      <c r="V41" s="108"/>
+      <c r="W41" s="108">
+        <v>0</v>
+      </c>
+      <c r="X41" s="108"/>
+      <c r="Y41" s="108"/>
+      <c r="Z41" s="108"/>
+      <c r="AA41" s="108"/>
+      <c r="AB41" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="AC41" s="118"/>
-      <c r="AD41" s="118"/>
-      <c r="AE41" s="118"/>
-      <c r="AF41" s="118"/>
+      <c r="AC41" s="114"/>
+      <c r="AD41" s="114"/>
+      <c r="AE41" s="114"/>
+      <c r="AF41" s="114"/>
       <c r="AG41" s="87">
         <v>1</v>
       </c>
@@ -20299,32 +20295,32 @@
       <c r="N42" s="82">
         <v>0</v>
       </c>
-      <c r="O42" s="117">
-        <v>0</v>
-      </c>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117">
-        <v>0</v>
-      </c>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117">
-        <v>0</v>
-      </c>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="117"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="118" t="s">
+      <c r="O42" s="108">
+        <v>0</v>
+      </c>
+      <c r="P42" s="108"/>
+      <c r="Q42" s="108"/>
+      <c r="R42" s="108"/>
+      <c r="S42" s="108"/>
+      <c r="T42" s="108">
+        <v>0</v>
+      </c>
+      <c r="U42" s="108"/>
+      <c r="V42" s="108"/>
+      <c r="W42" s="108">
+        <v>0</v>
+      </c>
+      <c r="X42" s="108"/>
+      <c r="Y42" s="108"/>
+      <c r="Z42" s="108"/>
+      <c r="AA42" s="108"/>
+      <c r="AB42" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="AC42" s="118"/>
-      <c r="AD42" s="118"/>
-      <c r="AE42" s="118"/>
-      <c r="AF42" s="118"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="114"/>
       <c r="AG42" s="87">
         <v>1</v>
       </c>
@@ -20375,32 +20371,32 @@
       <c r="N43" s="82">
         <v>0</v>
       </c>
-      <c r="O43" s="117">
-        <v>0</v>
-      </c>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117">
-        <v>0</v>
-      </c>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117">
-        <v>0</v>
-      </c>
-      <c r="X43" s="117"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="118" t="s">
+      <c r="O43" s="108">
+        <v>0</v>
+      </c>
+      <c r="P43" s="108"/>
+      <c r="Q43" s="108"/>
+      <c r="R43" s="108"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="108">
+        <v>0</v>
+      </c>
+      <c r="U43" s="108"/>
+      <c r="V43" s="108"/>
+      <c r="W43" s="108">
+        <v>0</v>
+      </c>
+      <c r="X43" s="108"/>
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="108"/>
+      <c r="AA43" s="108"/>
+      <c r="AB43" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="AC43" s="118"/>
-      <c r="AD43" s="118"/>
-      <c r="AE43" s="118"/>
-      <c r="AF43" s="118"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="114"/>
       <c r="AG43" s="87">
         <v>1</v>
       </c>
@@ -20451,32 +20447,32 @@
       <c r="N44" s="82">
         <v>0</v>
       </c>
-      <c r="O44" s="117">
-        <v>0</v>
-      </c>
-      <c r="P44" s="117"/>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="117"/>
-      <c r="S44" s="117"/>
-      <c r="T44" s="117">
-        <v>0</v>
-      </c>
-      <c r="U44" s="117"/>
-      <c r="V44" s="117"/>
-      <c r="W44" s="117">
-        <v>0</v>
-      </c>
-      <c r="X44" s="117"/>
-      <c r="Y44" s="117"/>
-      <c r="Z44" s="117"/>
-      <c r="AA44" s="117"/>
-      <c r="AB44" s="118" t="s">
+      <c r="O44" s="108">
+        <v>0</v>
+      </c>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="108"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="108">
+        <v>0</v>
+      </c>
+      <c r="U44" s="108"/>
+      <c r="V44" s="108"/>
+      <c r="W44" s="108">
+        <v>0</v>
+      </c>
+      <c r="X44" s="108"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="108"/>
+      <c r="AA44" s="108"/>
+      <c r="AB44" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="AC44" s="118"/>
-      <c r="AD44" s="118"/>
-      <c r="AE44" s="118"/>
-      <c r="AF44" s="118"/>
+      <c r="AC44" s="114"/>
+      <c r="AD44" s="114"/>
+      <c r="AE44" s="114"/>
+      <c r="AF44" s="114"/>
       <c r="AG44" s="87">
         <v>1</v>
       </c>
@@ -20527,32 +20523,32 @@
       <c r="N45" s="81">
         <v>1</v>
       </c>
-      <c r="O45" s="117">
-        <v>0</v>
-      </c>
-      <c r="P45" s="117"/>
-      <c r="Q45" s="117"/>
-      <c r="R45" s="117"/>
-      <c r="S45" s="117"/>
-      <c r="T45" s="117">
-        <v>0</v>
-      </c>
-      <c r="U45" s="117"/>
-      <c r="V45" s="117"/>
-      <c r="W45" s="117">
-        <v>0</v>
-      </c>
-      <c r="X45" s="117"/>
-      <c r="Y45" s="117"/>
-      <c r="Z45" s="117"/>
-      <c r="AA45" s="117"/>
-      <c r="AB45" s="118" t="s">
+      <c r="O45" s="108">
+        <v>0</v>
+      </c>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="108"/>
+      <c r="S45" s="108"/>
+      <c r="T45" s="108">
+        <v>0</v>
+      </c>
+      <c r="U45" s="108"/>
+      <c r="V45" s="108"/>
+      <c r="W45" s="108">
+        <v>0</v>
+      </c>
+      <c r="X45" s="108"/>
+      <c r="Y45" s="108"/>
+      <c r="Z45" s="108"/>
+      <c r="AA45" s="108"/>
+      <c r="AB45" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="AC45" s="118"/>
-      <c r="AD45" s="118"/>
-      <c r="AE45" s="118"/>
-      <c r="AF45" s="118"/>
+      <c r="AC45" s="114"/>
+      <c r="AD45" s="114"/>
+      <c r="AE45" s="114"/>
+      <c r="AF45" s="114"/>
       <c r="AG45" s="87">
         <v>1</v>
       </c>
@@ -20603,32 +20599,32 @@
       <c r="N46" s="81">
         <v>1</v>
       </c>
-      <c r="O46" s="117">
-        <v>0</v>
-      </c>
-      <c r="P46" s="117"/>
-      <c r="Q46" s="117"/>
-      <c r="R46" s="117"/>
-      <c r="S46" s="117"/>
-      <c r="T46" s="117">
-        <v>0</v>
-      </c>
-      <c r="U46" s="117"/>
-      <c r="V46" s="117"/>
-      <c r="W46" s="117">
-        <v>0</v>
-      </c>
-      <c r="X46" s="117"/>
-      <c r="Y46" s="117"/>
-      <c r="Z46" s="117"/>
-      <c r="AA46" s="117"/>
-      <c r="AB46" s="118" t="s">
+      <c r="O46" s="108">
+        <v>0</v>
+      </c>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="108"/>
+      <c r="S46" s="108"/>
+      <c r="T46" s="108">
+        <v>0</v>
+      </c>
+      <c r="U46" s="108"/>
+      <c r="V46" s="108"/>
+      <c r="W46" s="108">
+        <v>0</v>
+      </c>
+      <c r="X46" s="108"/>
+      <c r="Y46" s="108"/>
+      <c r="Z46" s="108"/>
+      <c r="AA46" s="108"/>
+      <c r="AB46" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="AC46" s="118"/>
-      <c r="AD46" s="118"/>
-      <c r="AE46" s="118"/>
-      <c r="AF46" s="118"/>
+      <c r="AC46" s="114"/>
+      <c r="AD46" s="114"/>
+      <c r="AE46" s="114"/>
+      <c r="AF46" s="114"/>
       <c r="AG46" s="87">
         <v>1</v>
       </c>
@@ -20643,46 +20639,46 @@
       <c r="B47" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="117" t="s">
+      <c r="C47" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="117"/>
-      <c r="K47" s="117"/>
-      <c r="L47" s="117"/>
-      <c r="M47" s="117"/>
-      <c r="N47" s="117"/>
-      <c r="O47" s="117" t="s">
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="P47" s="117"/>
-      <c r="Q47" s="117"/>
-      <c r="R47" s="117"/>
-      <c r="S47" s="117"/>
-      <c r="T47" s="117">
-        <v>1</v>
-      </c>
-      <c r="U47" s="117"/>
-      <c r="V47" s="117"/>
-      <c r="W47" s="117" t="s">
+      <c r="P47" s="108"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="108">
+        <v>1</v>
+      </c>
+      <c r="U47" s="108"/>
+      <c r="V47" s="108"/>
+      <c r="W47" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="X47" s="117"/>
-      <c r="Y47" s="117"/>
-      <c r="Z47" s="117"/>
-      <c r="AA47" s="117"/>
-      <c r="AB47" s="118" t="s">
+      <c r="X47" s="108"/>
+      <c r="Y47" s="108"/>
+      <c r="Z47" s="108"/>
+      <c r="AA47" s="108"/>
+      <c r="AB47" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="AC47" s="118"/>
-      <c r="AD47" s="118"/>
-      <c r="AE47" s="118"/>
-      <c r="AF47" s="118"/>
+      <c r="AC47" s="114"/>
+      <c r="AD47" s="114"/>
+      <c r="AE47" s="114"/>
+      <c r="AF47" s="114"/>
       <c r="AG47" s="87">
         <v>1</v>
       </c>
@@ -20697,46 +20693,46 @@
       <c r="B48" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="117" t="s">
+      <c r="C48" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="117"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="117"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="117"/>
-      <c r="J48" s="117"/>
-      <c r="K48" s="117"/>
-      <c r="L48" s="117"/>
-      <c r="M48" s="117"/>
-      <c r="N48" s="117"/>
-      <c r="O48" s="117" t="s">
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="108"/>
+      <c r="N48" s="108"/>
+      <c r="O48" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="P48" s="117"/>
-      <c r="Q48" s="117"/>
-      <c r="R48" s="117"/>
-      <c r="S48" s="117"/>
-      <c r="T48" s="117">
+      <c r="P48" s="108"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="108"/>
+      <c r="S48" s="108"/>
+      <c r="T48" s="108">
         <v>2</v>
       </c>
-      <c r="U48" s="117"/>
-      <c r="V48" s="117"/>
-      <c r="W48" s="117" t="s">
+      <c r="U48" s="108"/>
+      <c r="V48" s="108"/>
+      <c r="W48" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="X48" s="117"/>
-      <c r="Y48" s="117"/>
-      <c r="Z48" s="117"/>
-      <c r="AA48" s="117"/>
-      <c r="AB48" s="118" t="s">
+      <c r="X48" s="108"/>
+      <c r="Y48" s="108"/>
+      <c r="Z48" s="108"/>
+      <c r="AA48" s="108"/>
+      <c r="AB48" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="AC48" s="118"/>
-      <c r="AD48" s="118"/>
-      <c r="AE48" s="118"/>
-      <c r="AF48" s="118"/>
+      <c r="AC48" s="114"/>
+      <c r="AD48" s="114"/>
+      <c r="AE48" s="114"/>
+      <c r="AF48" s="114"/>
       <c r="AG48" s="87">
         <v>1</v>
       </c>
@@ -20751,46 +20747,46 @@
       <c r="B49" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="117" t="s">
+      <c r="C49" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="D49" s="117"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="117"/>
-      <c r="K49" s="117"/>
-      <c r="L49" s="117"/>
-      <c r="M49" s="117"/>
-      <c r="N49" s="117"/>
-      <c r="O49" s="117" t="s">
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="108"/>
+      <c r="L49" s="108"/>
+      <c r="M49" s="108"/>
+      <c r="N49" s="108"/>
+      <c r="O49" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="P49" s="117"/>
-      <c r="Q49" s="117"/>
-      <c r="R49" s="117"/>
-      <c r="S49" s="117"/>
-      <c r="T49" s="117">
+      <c r="P49" s="108"/>
+      <c r="Q49" s="108"/>
+      <c r="R49" s="108"/>
+      <c r="S49" s="108"/>
+      <c r="T49" s="108">
         <v>3</v>
       </c>
-      <c r="U49" s="117"/>
-      <c r="V49" s="117"/>
-      <c r="W49" s="117" t="s">
+      <c r="U49" s="108"/>
+      <c r="V49" s="108"/>
+      <c r="W49" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="X49" s="117"/>
-      <c r="Y49" s="117"/>
-      <c r="Z49" s="117"/>
-      <c r="AA49" s="117"/>
-      <c r="AB49" s="118" t="s">
+      <c r="X49" s="108"/>
+      <c r="Y49" s="108"/>
+      <c r="Z49" s="108"/>
+      <c r="AA49" s="108"/>
+      <c r="AB49" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="AC49" s="118"/>
-      <c r="AD49" s="118"/>
-      <c r="AE49" s="118"/>
-      <c r="AF49" s="118"/>
+      <c r="AC49" s="114"/>
+      <c r="AD49" s="114"/>
+      <c r="AE49" s="114"/>
+      <c r="AF49" s="114"/>
       <c r="AG49" s="87">
         <v>1</v>
       </c>
@@ -20805,46 +20801,46 @@
       <c r="B50" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="117" t="s">
+      <c r="C50" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="117"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="117"/>
-      <c r="I50" s="117"/>
-      <c r="J50" s="117"/>
-      <c r="K50" s="117"/>
-      <c r="L50" s="117"/>
-      <c r="M50" s="117"/>
-      <c r="N50" s="117"/>
-      <c r="O50" s="117" t="s">
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="108"/>
+      <c r="L50" s="108"/>
+      <c r="M50" s="108"/>
+      <c r="N50" s="108"/>
+      <c r="O50" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="P50" s="117"/>
-      <c r="Q50" s="117"/>
-      <c r="R50" s="117"/>
-      <c r="S50" s="117"/>
-      <c r="T50" s="117">
+      <c r="P50" s="108"/>
+      <c r="Q50" s="108"/>
+      <c r="R50" s="108"/>
+      <c r="S50" s="108"/>
+      <c r="T50" s="108">
         <v>5</v>
       </c>
-      <c r="U50" s="117"/>
-      <c r="V50" s="117"/>
-      <c r="W50" s="117" t="s">
+      <c r="U50" s="108"/>
+      <c r="V50" s="108"/>
+      <c r="W50" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="X50" s="117"/>
-      <c r="Y50" s="117"/>
-      <c r="Z50" s="117"/>
-      <c r="AA50" s="117"/>
-      <c r="AB50" s="118" t="s">
+      <c r="X50" s="108"/>
+      <c r="Y50" s="108"/>
+      <c r="Z50" s="108"/>
+      <c r="AA50" s="108"/>
+      <c r="AB50" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="AC50" s="118"/>
-      <c r="AD50" s="118"/>
-      <c r="AE50" s="118"/>
-      <c r="AF50" s="118"/>
+      <c r="AC50" s="114"/>
+      <c r="AD50" s="114"/>
+      <c r="AE50" s="114"/>
+      <c r="AF50" s="114"/>
       <c r="AG50" s="87">
         <v>1</v>
       </c>
@@ -20859,46 +20855,46 @@
       <c r="B51" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="117" t="s">
+      <c r="C51" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="117"/>
-      <c r="J51" s="117"/>
-      <c r="K51" s="117"/>
-      <c r="L51" s="117"/>
-      <c r="M51" s="117"/>
-      <c r="N51" s="117"/>
-      <c r="O51" s="117" t="s">
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="108"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="108"/>
+      <c r="N51" s="108"/>
+      <c r="O51" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="P51" s="117"/>
-      <c r="Q51" s="117"/>
-      <c r="R51" s="117"/>
-      <c r="S51" s="117"/>
-      <c r="T51" s="117">
+      <c r="P51" s="108"/>
+      <c r="Q51" s="108"/>
+      <c r="R51" s="108"/>
+      <c r="S51" s="108"/>
+      <c r="T51" s="108">
         <v>6</v>
       </c>
-      <c r="U51" s="117"/>
-      <c r="V51" s="117"/>
-      <c r="W51" s="117" t="s">
+      <c r="U51" s="108"/>
+      <c r="V51" s="108"/>
+      <c r="W51" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="X51" s="117"/>
-      <c r="Y51" s="117"/>
-      <c r="Z51" s="117"/>
-      <c r="AA51" s="117"/>
-      <c r="AB51" s="118" t="s">
+      <c r="X51" s="108"/>
+      <c r="Y51" s="108"/>
+      <c r="Z51" s="108"/>
+      <c r="AA51" s="108"/>
+      <c r="AB51" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="AC51" s="118"/>
-      <c r="AD51" s="118"/>
-      <c r="AE51" s="118"/>
-      <c r="AF51" s="118"/>
+      <c r="AC51" s="114"/>
+      <c r="AD51" s="114"/>
+      <c r="AE51" s="114"/>
+      <c r="AF51" s="114"/>
       <c r="AG51" s="87">
         <v>1</v>
       </c>
@@ -20913,46 +20909,46 @@
       <c r="B52" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="117" t="s">
+      <c r="C52" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="D52" s="117"/>
-      <c r="E52" s="117"/>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="117"/>
-      <c r="I52" s="117"/>
-      <c r="J52" s="117"/>
-      <c r="K52" s="117"/>
-      <c r="L52" s="117"/>
-      <c r="M52" s="117"/>
-      <c r="N52" s="117"/>
-      <c r="O52" s="117" t="s">
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="108"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="108"/>
+      <c r="N52" s="108"/>
+      <c r="O52" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="P52" s="117"/>
-      <c r="Q52" s="117"/>
-      <c r="R52" s="117"/>
-      <c r="S52" s="117"/>
-      <c r="T52" s="117">
+      <c r="P52" s="108"/>
+      <c r="Q52" s="108"/>
+      <c r="R52" s="108"/>
+      <c r="S52" s="108"/>
+      <c r="T52" s="108">
         <v>7</v>
       </c>
-      <c r="U52" s="117"/>
-      <c r="V52" s="117"/>
-      <c r="W52" s="117" t="s">
+      <c r="U52" s="108"/>
+      <c r="V52" s="108"/>
+      <c r="W52" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="X52" s="117"/>
-      <c r="Y52" s="117"/>
-      <c r="Z52" s="117"/>
-      <c r="AA52" s="117"/>
-      <c r="AB52" s="118" t="s">
+      <c r="X52" s="108"/>
+      <c r="Y52" s="108"/>
+      <c r="Z52" s="108"/>
+      <c r="AA52" s="108"/>
+      <c r="AB52" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="AC52" s="118"/>
-      <c r="AD52" s="118"/>
-      <c r="AE52" s="118"/>
-      <c r="AF52" s="118"/>
+      <c r="AC52" s="114"/>
+      <c r="AD52" s="114"/>
+      <c r="AE52" s="114"/>
+      <c r="AF52" s="114"/>
       <c r="AG52" s="87">
         <v>1</v>
       </c>
@@ -21096,21 +21092,21 @@
       <c r="C54" s="91">
         <v>12</v>
       </c>
-      <c r="D54" s="122" t="s">
+      <c r="D54" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="E54" s="123"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="123"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="124"/>
-      <c r="J54" s="125" t="s">
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="K54" s="125"/>
-      <c r="L54" s="125"/>
-      <c r="M54" s="125"/>
-      <c r="N54" s="125"/>
+      <c r="K54" s="112"/>
+      <c r="L54" s="112"/>
+      <c r="M54" s="112"/>
+      <c r="N54" s="112"/>
       <c r="O54" s="113" t="s">
         <v>121</v>
       </c>
@@ -21118,27 +21114,27 @@
       <c r="Q54" s="113"/>
       <c r="R54" s="113"/>
       <c r="S54" s="113"/>
-      <c r="T54" s="114" t="s">
+      <c r="T54" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="U54" s="114"/>
-      <c r="V54" s="114"/>
-      <c r="W54" s="122" t="s">
+      <c r="U54" s="107"/>
+      <c r="V54" s="107"/>
+      <c r="W54" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="X54" s="123"/>
-      <c r="Y54" s="123"/>
-      <c r="Z54" s="124"/>
+      <c r="X54" s="104"/>
+      <c r="Y54" s="104"/>
+      <c r="Z54" s="105"/>
       <c r="AA54" s="91">
         <v>11</v>
       </c>
-      <c r="AB54" s="114" t="s">
+      <c r="AB54" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="AC54" s="114"/>
-      <c r="AD54" s="114"/>
-      <c r="AE54" s="114"/>
-      <c r="AF54" s="114"/>
+      <c r="AC54" s="107"/>
+      <c r="AD54" s="107"/>
+      <c r="AE54" s="107"/>
+      <c r="AF54" s="107"/>
       <c r="AG54" s="83">
         <v>1</v>
       </c>
@@ -21156,49 +21152,49 @@
       <c r="C55" s="92">
         <v>12</v>
       </c>
-      <c r="D55" s="119" t="s">
+      <c r="D55" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="121"/>
-      <c r="J55" s="111" t="s">
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K55" s="111"/>
-      <c r="L55" s="111"/>
-      <c r="M55" s="111"/>
-      <c r="N55" s="111"/>
-      <c r="O55" s="111" t="s">
+      <c r="K55" s="101"/>
+      <c r="L55" s="101"/>
+      <c r="M55" s="101"/>
+      <c r="N55" s="101"/>
+      <c r="O55" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="111"/>
-      <c r="R55" s="111"/>
-      <c r="S55" s="111"/>
-      <c r="T55" s="111">
-        <v>0</v>
-      </c>
-      <c r="U55" s="111"/>
-      <c r="V55" s="111"/>
-      <c r="W55" s="119" t="s">
+      <c r="P55" s="101"/>
+      <c r="Q55" s="101"/>
+      <c r="R55" s="101"/>
+      <c r="S55" s="101"/>
+      <c r="T55" s="101">
+        <v>0</v>
+      </c>
+      <c r="U55" s="101"/>
+      <c r="V55" s="101"/>
+      <c r="W55" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="X55" s="120"/>
-      <c r="Y55" s="120"/>
-      <c r="Z55" s="121"/>
+      <c r="X55" s="99"/>
+      <c r="Y55" s="99"/>
+      <c r="Z55" s="100"/>
       <c r="AA55" s="92">
         <v>11</v>
       </c>
-      <c r="AB55" s="111" t="s">
+      <c r="AB55" s="101" t="s">
         <v>189</v>
       </c>
-      <c r="AC55" s="111"/>
-      <c r="AD55" s="111"/>
-      <c r="AE55" s="111"/>
-      <c r="AF55" s="111"/>
+      <c r="AC55" s="101"/>
+      <c r="AD55" s="101"/>
+      <c r="AE55" s="101"/>
+      <c r="AF55" s="101"/>
       <c r="AG55" s="79">
         <v>1</v>
       </c>
@@ -21216,49 +21212,49 @@
       <c r="C56" s="92">
         <v>12</v>
       </c>
-      <c r="D56" s="119" t="s">
+      <c r="D56" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="121"/>
-      <c r="J56" s="111" t="s">
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K56" s="111"/>
-      <c r="L56" s="111"/>
-      <c r="M56" s="111"/>
-      <c r="N56" s="111"/>
-      <c r="O56" s="111" t="s">
+      <c r="K56" s="101"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="101"/>
+      <c r="N56" s="101"/>
+      <c r="O56" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P56" s="111"/>
-      <c r="Q56" s="111"/>
-      <c r="R56" s="111"/>
-      <c r="S56" s="111"/>
-      <c r="T56" s="111">
-        <v>1</v>
-      </c>
-      <c r="U56" s="111"/>
-      <c r="V56" s="111"/>
-      <c r="W56" s="119" t="s">
+      <c r="P56" s="101"/>
+      <c r="Q56" s="101"/>
+      <c r="R56" s="101"/>
+      <c r="S56" s="101"/>
+      <c r="T56" s="101">
+        <v>1</v>
+      </c>
+      <c r="U56" s="101"/>
+      <c r="V56" s="101"/>
+      <c r="W56" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="X56" s="120"/>
-      <c r="Y56" s="120"/>
-      <c r="Z56" s="121"/>
+      <c r="X56" s="99"/>
+      <c r="Y56" s="99"/>
+      <c r="Z56" s="100"/>
       <c r="AA56" s="92">
         <v>11</v>
       </c>
-      <c r="AB56" s="111" t="s">
+      <c r="AB56" s="101" t="s">
         <v>189</v>
       </c>
-      <c r="AC56" s="111"/>
-      <c r="AD56" s="111"/>
-      <c r="AE56" s="111"/>
-      <c r="AF56" s="111"/>
+      <c r="AC56" s="101"/>
+      <c r="AD56" s="101"/>
+      <c r="AE56" s="101"/>
+      <c r="AF56" s="101"/>
       <c r="AG56" s="79">
         <v>1</v>
       </c>
@@ -21276,49 +21272,49 @@
       <c r="C57" s="92">
         <v>12</v>
       </c>
-      <c r="D57" s="119" t="s">
+      <c r="D57" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="121"/>
-      <c r="J57" s="111" t="s">
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K57" s="111"/>
-      <c r="L57" s="111"/>
-      <c r="M57" s="111"/>
-      <c r="N57" s="111"/>
-      <c r="O57" s="111" t="s">
+      <c r="K57" s="101"/>
+      <c r="L57" s="101"/>
+      <c r="M57" s="101"/>
+      <c r="N57" s="101"/>
+      <c r="O57" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P57" s="111"/>
-      <c r="Q57" s="111"/>
-      <c r="R57" s="111"/>
-      <c r="S57" s="111"/>
-      <c r="T57" s="111">
+      <c r="P57" s="101"/>
+      <c r="Q57" s="101"/>
+      <c r="R57" s="101"/>
+      <c r="S57" s="101"/>
+      <c r="T57" s="101">
         <v>4</v>
       </c>
-      <c r="U57" s="111"/>
-      <c r="V57" s="111"/>
-      <c r="W57" s="119" t="s">
+      <c r="U57" s="101"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="X57" s="120"/>
-      <c r="Y57" s="120"/>
-      <c r="Z57" s="121"/>
+      <c r="X57" s="99"/>
+      <c r="Y57" s="99"/>
+      <c r="Z57" s="100"/>
       <c r="AA57" s="92">
         <v>11</v>
       </c>
-      <c r="AB57" s="111" t="s">
+      <c r="AB57" s="101" t="s">
         <v>189</v>
       </c>
-      <c r="AC57" s="111"/>
-      <c r="AD57" s="111"/>
-      <c r="AE57" s="111"/>
-      <c r="AF57" s="111"/>
+      <c r="AC57" s="101"/>
+      <c r="AD57" s="101"/>
+      <c r="AE57" s="101"/>
+      <c r="AF57" s="101"/>
       <c r="AG57" s="79">
         <v>1</v>
       </c>
@@ -21336,49 +21332,49 @@
       <c r="C58" s="92">
         <v>12</v>
       </c>
-      <c r="D58" s="119" t="s">
+      <c r="D58" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="E58" s="120"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="121"/>
-      <c r="J58" s="111" t="s">
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K58" s="111"/>
-      <c r="L58" s="111"/>
-      <c r="M58" s="111"/>
-      <c r="N58" s="111"/>
-      <c r="O58" s="111" t="s">
+      <c r="K58" s="101"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="101"/>
+      <c r="N58" s="101"/>
+      <c r="O58" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P58" s="111"/>
-      <c r="Q58" s="111"/>
-      <c r="R58" s="111"/>
-      <c r="S58" s="111"/>
-      <c r="T58" s="111">
+      <c r="P58" s="101"/>
+      <c r="Q58" s="101"/>
+      <c r="R58" s="101"/>
+      <c r="S58" s="101"/>
+      <c r="T58" s="101">
         <v>5</v>
       </c>
-      <c r="U58" s="111"/>
-      <c r="V58" s="111"/>
-      <c r="W58" s="119" t="s">
+      <c r="U58" s="101"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="X58" s="120"/>
-      <c r="Y58" s="120"/>
-      <c r="Z58" s="121"/>
+      <c r="X58" s="99"/>
+      <c r="Y58" s="99"/>
+      <c r="Z58" s="100"/>
       <c r="AA58" s="92">
         <v>11</v>
       </c>
-      <c r="AB58" s="111" t="s">
+      <c r="AB58" s="101" t="s">
         <v>189</v>
       </c>
-      <c r="AC58" s="111"/>
-      <c r="AD58" s="111"/>
-      <c r="AE58" s="111"/>
-      <c r="AF58" s="111"/>
+      <c r="AC58" s="101"/>
+      <c r="AD58" s="101"/>
+      <c r="AE58" s="101"/>
+      <c r="AF58" s="101"/>
       <c r="AG58" s="79">
         <v>1</v>
       </c>
@@ -21396,49 +21392,49 @@
       <c r="C59" s="92">
         <v>12</v>
       </c>
-      <c r="D59" s="119" t="s">
+      <c r="D59" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="121"/>
-      <c r="J59" s="111" t="s">
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="K59" s="111"/>
-      <c r="L59" s="111"/>
-      <c r="M59" s="111"/>
-      <c r="N59" s="111"/>
-      <c r="O59" s="111" t="s">
+      <c r="K59" s="101"/>
+      <c r="L59" s="101"/>
+      <c r="M59" s="101"/>
+      <c r="N59" s="101"/>
+      <c r="O59" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="P59" s="111"/>
-      <c r="Q59" s="111"/>
-      <c r="R59" s="111"/>
-      <c r="S59" s="111"/>
-      <c r="T59" s="111">
+      <c r="P59" s="101"/>
+      <c r="Q59" s="101"/>
+      <c r="R59" s="101"/>
+      <c r="S59" s="101"/>
+      <c r="T59" s="101">
         <v>6</v>
       </c>
-      <c r="U59" s="111"/>
-      <c r="V59" s="111"/>
-      <c r="W59" s="119" t="s">
+      <c r="U59" s="101"/>
+      <c r="V59" s="101"/>
+      <c r="W59" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="X59" s="120"/>
-      <c r="Y59" s="120"/>
-      <c r="Z59" s="121"/>
+      <c r="X59" s="99"/>
+      <c r="Y59" s="99"/>
+      <c r="Z59" s="100"/>
       <c r="AA59" s="92">
         <v>11</v>
       </c>
-      <c r="AB59" s="111" t="s">
+      <c r="AB59" s="101" t="s">
         <v>189</v>
       </c>
-      <c r="AC59" s="111"/>
-      <c r="AD59" s="111"/>
-      <c r="AE59" s="111"/>
-      <c r="AF59" s="111"/>
+      <c r="AC59" s="101"/>
+      <c r="AD59" s="101"/>
+      <c r="AE59" s="101"/>
+      <c r="AF59" s="101"/>
       <c r="AG59" s="79">
         <v>1</v>
       </c>
@@ -21456,49 +21452,49 @@
       <c r="C60" s="92">
         <v>12</v>
       </c>
-      <c r="D60" s="119" t="s">
+      <c r="D60" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="120"/>
-      <c r="I60" s="121"/>
-      <c r="J60" s="117" t="s">
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="K60" s="117"/>
-      <c r="L60" s="117"/>
-      <c r="M60" s="117"/>
-      <c r="N60" s="117"/>
-      <c r="O60" s="117" t="s">
+      <c r="K60" s="108"/>
+      <c r="L60" s="108"/>
+      <c r="M60" s="108"/>
+      <c r="N60" s="108"/>
+      <c r="O60" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="P60" s="117"/>
-      <c r="Q60" s="117"/>
-      <c r="R60" s="117"/>
-      <c r="S60" s="117"/>
-      <c r="T60" s="117">
+      <c r="P60" s="108"/>
+      <c r="Q60" s="108"/>
+      <c r="R60" s="108"/>
+      <c r="S60" s="108"/>
+      <c r="T60" s="108">
         <v>7</v>
       </c>
-      <c r="U60" s="117"/>
-      <c r="V60" s="117"/>
-      <c r="W60" s="119" t="s">
+      <c r="U60" s="108"/>
+      <c r="V60" s="108"/>
+      <c r="W60" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="X60" s="120"/>
-      <c r="Y60" s="120"/>
-      <c r="Z60" s="121"/>
+      <c r="X60" s="99"/>
+      <c r="Y60" s="99"/>
+      <c r="Z60" s="100"/>
       <c r="AA60" s="92">
         <v>11</v>
       </c>
-      <c r="AB60" s="117" t="s">
+      <c r="AB60" s="108" t="s">
         <v>189</v>
       </c>
-      <c r="AC60" s="117"/>
-      <c r="AD60" s="117"/>
-      <c r="AE60" s="117"/>
-      <c r="AF60" s="117"/>
+      <c r="AC60" s="108"/>
+      <c r="AD60" s="108"/>
+      <c r="AE60" s="108"/>
+      <c r="AF60" s="108"/>
       <c r="AG60" s="87">
         <v>1</v>
       </c>
@@ -21639,22 +21635,22 @@
         <v>195</v>
       </c>
       <c r="B62" s="73"/>
-      <c r="C62" s="112" t="s">
+      <c r="C62" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="112"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="125" t="s">
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="102"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="K62" s="125"/>
-      <c r="L62" s="125"/>
-      <c r="M62" s="125"/>
-      <c r="N62" s="125"/>
+      <c r="K62" s="112"/>
+      <c r="L62" s="112"/>
+      <c r="M62" s="112"/>
+      <c r="N62" s="112"/>
       <c r="O62" s="113" t="s">
         <v>121</v>
       </c>
@@ -21662,25 +21658,25 @@
       <c r="Q62" s="113"/>
       <c r="R62" s="113"/>
       <c r="S62" s="113"/>
-      <c r="T62" s="114" t="s">
+      <c r="T62" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="U62" s="114"/>
-      <c r="V62" s="114"/>
-      <c r="W62" s="112" t="s">
+      <c r="U62" s="107"/>
+      <c r="V62" s="107"/>
+      <c r="W62" s="102" t="s">
         <v>197</v>
       </c>
-      <c r="X62" s="112"/>
-      <c r="Y62" s="112"/>
-      <c r="Z62" s="112"/>
-      <c r="AA62" s="112"/>
-      <c r="AB62" s="114" t="s">
+      <c r="X62" s="102"/>
+      <c r="Y62" s="102"/>
+      <c r="Z62" s="102"/>
+      <c r="AA62" s="102"/>
+      <c r="AB62" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="AC62" s="114"/>
-      <c r="AD62" s="114"/>
-      <c r="AE62" s="114"/>
-      <c r="AF62" s="114"/>
+      <c r="AC62" s="107"/>
+      <c r="AD62" s="107"/>
+      <c r="AE62" s="107"/>
+      <c r="AF62" s="107"/>
       <c r="AG62" s="83">
         <v>1</v>
       </c>
@@ -21695,48 +21691,48 @@
       <c r="B63" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="126" t="s">
+      <c r="C63" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="127"/>
-      <c r="E63" s="127"/>
-      <c r="F63" s="127"/>
-      <c r="G63" s="127"/>
-      <c r="H63" s="127"/>
-      <c r="I63" s="128"/>
-      <c r="J63" s="126" t="s">
+      <c r="D63" s="110"/>
+      <c r="E63" s="110"/>
+      <c r="F63" s="110"/>
+      <c r="G63" s="110"/>
+      <c r="H63" s="110"/>
+      <c r="I63" s="111"/>
+      <c r="J63" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="K63" s="127"/>
-      <c r="L63" s="127"/>
-      <c r="M63" s="127"/>
-      <c r="N63" s="128"/>
-      <c r="O63" s="126" t="s">
+      <c r="K63" s="110"/>
+      <c r="L63" s="110"/>
+      <c r="M63" s="110"/>
+      <c r="N63" s="111"/>
+      <c r="O63" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="P63" s="127"/>
-      <c r="Q63" s="127"/>
-      <c r="R63" s="127"/>
-      <c r="S63" s="128"/>
-      <c r="T63" s="126">
-        <v>0</v>
-      </c>
-      <c r="U63" s="127"/>
-      <c r="V63" s="128"/>
-      <c r="W63" s="126" t="s">
+      <c r="P63" s="110"/>
+      <c r="Q63" s="110"/>
+      <c r="R63" s="110"/>
+      <c r="S63" s="111"/>
+      <c r="T63" s="109">
+        <v>0</v>
+      </c>
+      <c r="U63" s="110"/>
+      <c r="V63" s="111"/>
+      <c r="W63" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="X63" s="127"/>
-      <c r="Y63" s="127"/>
-      <c r="Z63" s="127"/>
-      <c r="AA63" s="128"/>
-      <c r="AB63" s="126" t="s">
+      <c r="X63" s="110"/>
+      <c r="Y63" s="110"/>
+      <c r="Z63" s="110"/>
+      <c r="AA63" s="111"/>
+      <c r="AB63" s="109" t="s">
         <v>199</v>
       </c>
-      <c r="AC63" s="127"/>
-      <c r="AD63" s="127"/>
-      <c r="AE63" s="127"/>
-      <c r="AF63" s="128"/>
+      <c r="AC63" s="110"/>
+      <c r="AD63" s="110"/>
+      <c r="AE63" s="110"/>
+      <c r="AF63" s="111"/>
       <c r="AG63" s="87">
         <v>1</v>
       </c>
@@ -21751,48 +21747,48 @@
       <c r="B64" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="117" t="s">
+      <c r="C64" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="117" t="s">
+      <c r="D64" s="108"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="108"/>
+      <c r="I64" s="108"/>
+      <c r="J64" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="K64" s="117"/>
-      <c r="L64" s="117"/>
-      <c r="M64" s="117"/>
-      <c r="N64" s="117"/>
-      <c r="O64" s="117" t="s">
+      <c r="K64" s="108"/>
+      <c r="L64" s="108"/>
+      <c r="M64" s="108"/>
+      <c r="N64" s="108"/>
+      <c r="O64" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="P64" s="117"/>
-      <c r="Q64" s="117"/>
-      <c r="R64" s="117"/>
-      <c r="S64" s="117"/>
-      <c r="T64" s="117">
-        <v>1</v>
-      </c>
-      <c r="U64" s="117"/>
-      <c r="V64" s="117"/>
-      <c r="W64" s="117" t="s">
+      <c r="P64" s="108"/>
+      <c r="Q64" s="108"/>
+      <c r="R64" s="108"/>
+      <c r="S64" s="108"/>
+      <c r="T64" s="108">
+        <v>1</v>
+      </c>
+      <c r="U64" s="108"/>
+      <c r="V64" s="108"/>
+      <c r="W64" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="X64" s="117"/>
-      <c r="Y64" s="117"/>
-      <c r="Z64" s="117"/>
-      <c r="AA64" s="117"/>
-      <c r="AB64" s="117" t="s">
+      <c r="X64" s="108"/>
+      <c r="Y64" s="108"/>
+      <c r="Z64" s="108"/>
+      <c r="AA64" s="108"/>
+      <c r="AB64" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="AC64" s="117"/>
-      <c r="AD64" s="117"/>
-      <c r="AE64" s="117"/>
-      <c r="AF64" s="117"/>
+      <c r="AC64" s="108"/>
+      <c r="AD64" s="108"/>
+      <c r="AE64" s="108"/>
+      <c r="AF64" s="108"/>
       <c r="AG64" s="87">
         <v>1</v>
       </c>
@@ -21807,48 +21803,48 @@
       <c r="B65" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="117" t="s">
+      <c r="C65" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="D65" s="117"/>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="117"/>
-      <c r="H65" s="117"/>
-      <c r="I65" s="117"/>
-      <c r="J65" s="117" t="s">
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="108"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="K65" s="117"/>
-      <c r="L65" s="117"/>
-      <c r="M65" s="117"/>
-      <c r="N65" s="117"/>
-      <c r="O65" s="117" t="s">
+      <c r="K65" s="108"/>
+      <c r="L65" s="108"/>
+      <c r="M65" s="108"/>
+      <c r="N65" s="108"/>
+      <c r="O65" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="P65" s="117"/>
-      <c r="Q65" s="117"/>
-      <c r="R65" s="117"/>
-      <c r="S65" s="117"/>
-      <c r="T65" s="117">
+      <c r="P65" s="108"/>
+      <c r="Q65" s="108"/>
+      <c r="R65" s="108"/>
+      <c r="S65" s="108"/>
+      <c r="T65" s="108">
         <v>2</v>
       </c>
-      <c r="U65" s="117"/>
-      <c r="V65" s="117"/>
-      <c r="W65" s="117" t="s">
+      <c r="U65" s="108"/>
+      <c r="V65" s="108"/>
+      <c r="W65" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="X65" s="117"/>
-      <c r="Y65" s="117"/>
-      <c r="Z65" s="117"/>
-      <c r="AA65" s="117"/>
-      <c r="AB65" s="117" t="s">
+      <c r="X65" s="108"/>
+      <c r="Y65" s="108"/>
+      <c r="Z65" s="108"/>
+      <c r="AA65" s="108"/>
+      <c r="AB65" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="AC65" s="117"/>
-      <c r="AD65" s="117"/>
-      <c r="AE65" s="117"/>
-      <c r="AF65" s="117"/>
+      <c r="AC65" s="108"/>
+      <c r="AD65" s="108"/>
+      <c r="AE65" s="108"/>
+      <c r="AF65" s="108"/>
       <c r="AG65" s="87">
         <v>1</v>
       </c>
@@ -21989,42 +21985,42 @@
         <v>202</v>
       </c>
       <c r="B67" s="72"/>
-      <c r="C67" s="112" t="s">
+      <c r="C67" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="112"/>
-      <c r="K67" s="112"/>
-      <c r="L67" s="112"/>
-      <c r="M67" s="112"/>
-      <c r="N67" s="112"/>
-      <c r="O67" s="112"/>
-      <c r="P67" s="112"/>
-      <c r="Q67" s="112"/>
-      <c r="R67" s="112"/>
-      <c r="S67" s="112"/>
-      <c r="T67" s="112"/>
-      <c r="U67" s="112"/>
-      <c r="V67" s="112"/>
-      <c r="W67" s="115" t="s">
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="102"/>
+      <c r="K67" s="102"/>
+      <c r="L67" s="102"/>
+      <c r="M67" s="102"/>
+      <c r="N67" s="102"/>
+      <c r="O67" s="102"/>
+      <c r="P67" s="102"/>
+      <c r="Q67" s="102"/>
+      <c r="R67" s="102"/>
+      <c r="S67" s="102"/>
+      <c r="T67" s="102"/>
+      <c r="U67" s="102"/>
+      <c r="V67" s="102"/>
+      <c r="W67" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="X67" s="115"/>
-      <c r="Y67" s="115"/>
-      <c r="Z67" s="115"/>
-      <c r="AA67" s="115"/>
-      <c r="AB67" s="114" t="s">
+      <c r="X67" s="106"/>
+      <c r="Y67" s="106"/>
+      <c r="Z67" s="106"/>
+      <c r="AA67" s="106"/>
+      <c r="AB67" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="AC67" s="114"/>
-      <c r="AD67" s="114"/>
-      <c r="AE67" s="114"/>
-      <c r="AF67" s="114"/>
+      <c r="AC67" s="107"/>
+      <c r="AD67" s="107"/>
+      <c r="AE67" s="107"/>
+      <c r="AF67" s="107"/>
       <c r="AG67" s="83">
         <v>1</v>
       </c>
@@ -22039,42 +22035,42 @@
       <c r="B68" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="112" t="s">
+      <c r="C68" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="112"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="112"/>
-      <c r="G68" s="112"/>
-      <c r="H68" s="112"/>
-      <c r="I68" s="112"/>
-      <c r="J68" s="112"/>
-      <c r="K68" s="112"/>
-      <c r="L68" s="112"/>
-      <c r="M68" s="112"/>
-      <c r="N68" s="112"/>
-      <c r="O68" s="112"/>
-      <c r="P68" s="112"/>
-      <c r="Q68" s="112"/>
-      <c r="R68" s="112"/>
-      <c r="S68" s="112"/>
-      <c r="T68" s="112"/>
-      <c r="U68" s="112"/>
-      <c r="V68" s="112"/>
-      <c r="W68" s="111" t="s">
+      <c r="D68" s="102"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="102"/>
+      <c r="I68" s="102"/>
+      <c r="J68" s="102"/>
+      <c r="K68" s="102"/>
+      <c r="L68" s="102"/>
+      <c r="M68" s="102"/>
+      <c r="N68" s="102"/>
+      <c r="O68" s="102"/>
+      <c r="P68" s="102"/>
+      <c r="Q68" s="102"/>
+      <c r="R68" s="102"/>
+      <c r="S68" s="102"/>
+      <c r="T68" s="102"/>
+      <c r="U68" s="102"/>
+      <c r="V68" s="102"/>
+      <c r="W68" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X68" s="111"/>
-      <c r="Y68" s="111"/>
-      <c r="Z68" s="111"/>
-      <c r="AA68" s="111"/>
-      <c r="AB68" s="111" t="s">
+      <c r="X68" s="101"/>
+      <c r="Y68" s="101"/>
+      <c r="Z68" s="101"/>
+      <c r="AA68" s="101"/>
+      <c r="AB68" s="101" t="s">
         <v>205</v>
       </c>
-      <c r="AC68" s="111"/>
-      <c r="AD68" s="111"/>
-      <c r="AE68" s="111"/>
-      <c r="AF68" s="111"/>
+      <c r="AC68" s="101"/>
+      <c r="AD68" s="101"/>
+      <c r="AE68" s="101"/>
+      <c r="AF68" s="101"/>
       <c r="AG68" s="79">
         <v>1</v>
       </c>
@@ -22089,42 +22085,42 @@
       <c r="B69" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="112" t="s">
+      <c r="C69" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="112"/>
-      <c r="E69" s="112"/>
-      <c r="F69" s="112"/>
-      <c r="G69" s="112"/>
-      <c r="H69" s="112"/>
-      <c r="I69" s="112"/>
-      <c r="J69" s="112"/>
-      <c r="K69" s="112"/>
-      <c r="L69" s="112"/>
-      <c r="M69" s="112"/>
-      <c r="N69" s="112"/>
-      <c r="O69" s="112"/>
-      <c r="P69" s="112"/>
-      <c r="Q69" s="112"/>
-      <c r="R69" s="112"/>
-      <c r="S69" s="112"/>
-      <c r="T69" s="112"/>
-      <c r="U69" s="112"/>
-      <c r="V69" s="112"/>
-      <c r="W69" s="111" t="s">
+      <c r="D69" s="102"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="102"/>
+      <c r="I69" s="102"/>
+      <c r="J69" s="102"/>
+      <c r="K69" s="102"/>
+      <c r="L69" s="102"/>
+      <c r="M69" s="102"/>
+      <c r="N69" s="102"/>
+      <c r="O69" s="102"/>
+      <c r="P69" s="102"/>
+      <c r="Q69" s="102"/>
+      <c r="R69" s="102"/>
+      <c r="S69" s="102"/>
+      <c r="T69" s="102"/>
+      <c r="U69" s="102"/>
+      <c r="V69" s="102"/>
+      <c r="W69" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X69" s="111"/>
-      <c r="Y69" s="111"/>
-      <c r="Z69" s="111"/>
-      <c r="AA69" s="111"/>
-      <c r="AB69" s="111" t="s">
+      <c r="X69" s="101"/>
+      <c r="Y69" s="101"/>
+      <c r="Z69" s="101"/>
+      <c r="AA69" s="101"/>
+      <c r="AB69" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="AC69" s="111"/>
-      <c r="AD69" s="111"/>
-      <c r="AE69" s="111"/>
-      <c r="AF69" s="111"/>
+      <c r="AC69" s="101"/>
+      <c r="AD69" s="101"/>
+      <c r="AE69" s="101"/>
+      <c r="AF69" s="101"/>
       <c r="AG69" s="79">
         <v>1</v>
       </c>
@@ -22268,45 +22264,45 @@
       <c r="C71" s="86">
         <v>20</v>
       </c>
-      <c r="D71" s="122" t="s">
+      <c r="D71" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="E71" s="123"/>
-      <c r="F71" s="123"/>
-      <c r="G71" s="123"/>
-      <c r="H71" s="123"/>
-      <c r="I71" s="123"/>
-      <c r="J71" s="123"/>
-      <c r="K71" s="123"/>
-      <c r="L71" s="123"/>
-      <c r="M71" s="124"/>
+      <c r="E71" s="104"/>
+      <c r="F71" s="104"/>
+      <c r="G71" s="104"/>
+      <c r="H71" s="104"/>
+      <c r="I71" s="104"/>
+      <c r="J71" s="104"/>
+      <c r="K71" s="104"/>
+      <c r="L71" s="104"/>
+      <c r="M71" s="105"/>
       <c r="N71" s="86">
         <v>11</v>
       </c>
-      <c r="O71" s="122" t="s">
+      <c r="O71" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="P71" s="123"/>
-      <c r="Q71" s="123"/>
-      <c r="R71" s="123"/>
-      <c r="S71" s="123"/>
-      <c r="T71" s="123"/>
-      <c r="U71" s="123"/>
-      <c r="V71" s="124"/>
-      <c r="W71" s="115" t="s">
+      <c r="P71" s="104"/>
+      <c r="Q71" s="104"/>
+      <c r="R71" s="104"/>
+      <c r="S71" s="104"/>
+      <c r="T71" s="104"/>
+      <c r="U71" s="104"/>
+      <c r="V71" s="105"/>
+      <c r="W71" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="X71" s="115"/>
-      <c r="Y71" s="115"/>
-      <c r="Z71" s="115"/>
-      <c r="AA71" s="115"/>
-      <c r="AB71" s="114" t="s">
+      <c r="X71" s="106"/>
+      <c r="Y71" s="106"/>
+      <c r="Z71" s="106"/>
+      <c r="AA71" s="106"/>
+      <c r="AB71" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="AC71" s="114"/>
-      <c r="AD71" s="114"/>
-      <c r="AE71" s="114"/>
-      <c r="AF71" s="114"/>
+      <c r="AC71" s="107"/>
+      <c r="AD71" s="107"/>
+      <c r="AE71" s="107"/>
+      <c r="AF71" s="107"/>
       <c r="AG71" s="83">
         <v>1</v>
       </c>
@@ -22324,45 +22320,45 @@
       <c r="C72" s="93">
         <v>20</v>
       </c>
-      <c r="D72" s="119" t="s">
+      <c r="D72" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="E72" s="120"/>
-      <c r="F72" s="120"/>
-      <c r="G72" s="120"/>
-      <c r="H72" s="120"/>
-      <c r="I72" s="120"/>
-      <c r="J72" s="120"/>
-      <c r="K72" s="120"/>
-      <c r="L72" s="120"/>
-      <c r="M72" s="121"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="99"/>
+      <c r="I72" s="99"/>
+      <c r="J72" s="99"/>
+      <c r="K72" s="99"/>
+      <c r="L72" s="99"/>
+      <c r="M72" s="100"/>
       <c r="N72" s="93">
         <v>11</v>
       </c>
-      <c r="O72" s="119" t="s">
+      <c r="O72" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="P72" s="120"/>
-      <c r="Q72" s="120"/>
-      <c r="R72" s="120"/>
-      <c r="S72" s="120"/>
-      <c r="T72" s="120"/>
-      <c r="U72" s="120"/>
-      <c r="V72" s="121"/>
-      <c r="W72" s="111" t="s">
+      <c r="P72" s="99"/>
+      <c r="Q72" s="99"/>
+      <c r="R72" s="99"/>
+      <c r="S72" s="99"/>
+      <c r="T72" s="99"/>
+      <c r="U72" s="99"/>
+      <c r="V72" s="100"/>
+      <c r="W72" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="X72" s="111"/>
-      <c r="Y72" s="111"/>
-      <c r="Z72" s="111"/>
-      <c r="AA72" s="111"/>
-      <c r="AB72" s="111" t="s">
+      <c r="X72" s="101"/>
+      <c r="Y72" s="101"/>
+      <c r="Z72" s="101"/>
+      <c r="AA72" s="101"/>
+      <c r="AB72" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="AC72" s="111"/>
-      <c r="AD72" s="111"/>
-      <c r="AE72" s="111"/>
-      <c r="AF72" s="111"/>
+      <c r="AC72" s="101"/>
+      <c r="AD72" s="101"/>
+      <c r="AE72" s="101"/>
+      <c r="AF72" s="101"/>
       <c r="AG72" s="79">
         <v>1</v>
       </c>
@@ -22372,77 +22368,245 @@
     </row>
   </sheetData>
   <mergeCells count="327">
-    <mergeCell ref="D72:M72"/>
-    <mergeCell ref="O72:V72"/>
-    <mergeCell ref="W72:AA72"/>
-    <mergeCell ref="AB72:AF72"/>
-    <mergeCell ref="C69:V69"/>
-    <mergeCell ref="W69:AA69"/>
-    <mergeCell ref="AB69:AF69"/>
-    <mergeCell ref="D71:M71"/>
-    <mergeCell ref="O71:V71"/>
-    <mergeCell ref="W71:AA71"/>
-    <mergeCell ref="AB71:AF71"/>
-    <mergeCell ref="C67:V67"/>
-    <mergeCell ref="W67:AA67"/>
-    <mergeCell ref="AB67:AF67"/>
-    <mergeCell ref="C68:V68"/>
-    <mergeCell ref="W68:AA68"/>
-    <mergeCell ref="AB68:AF68"/>
-    <mergeCell ref="C65:I65"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="W65:AA65"/>
-    <mergeCell ref="AB65:AF65"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="O64:S64"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="W64:AA64"/>
-    <mergeCell ref="AB64:AF64"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="O63:S63"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="W63:AA63"/>
-    <mergeCell ref="AB63:AF63"/>
-    <mergeCell ref="C62:I62"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="O62:S62"/>
-    <mergeCell ref="T62:V62"/>
-    <mergeCell ref="W62:AA62"/>
-    <mergeCell ref="AB62:AF62"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:N60"/>
-    <mergeCell ref="O60:S60"/>
-    <mergeCell ref="T60:V60"/>
-    <mergeCell ref="W60:Z60"/>
-    <mergeCell ref="AB60:AF60"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="J59:N59"/>
-    <mergeCell ref="O59:S59"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="W59:Z59"/>
-    <mergeCell ref="AB59:AF59"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="J58:N58"/>
-    <mergeCell ref="O58:S58"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="W58:Z58"/>
-    <mergeCell ref="AB58:AF58"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="O57:S57"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="W57:Z57"/>
-    <mergeCell ref="AB57:AF57"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="O56:S56"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="W56:Z56"/>
-    <mergeCell ref="AB56:AF56"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:AA12"/>
+    <mergeCell ref="AB12:AF12"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:AA14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:AA17"/>
+    <mergeCell ref="AB17:AF17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:AA18"/>
+    <mergeCell ref="AB18:AF18"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="W19:AA19"/>
+    <mergeCell ref="AB19:AF19"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:AA20"/>
+    <mergeCell ref="AB20:AF20"/>
+    <mergeCell ref="C22:N22"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="AB22:AF22"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="AB23:AF23"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="C25:N25"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:AA25"/>
+    <mergeCell ref="AB25:AF25"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:AA26"/>
+    <mergeCell ref="AB26:AF26"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:AA27"/>
+    <mergeCell ref="AB27:AF27"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:AA28"/>
+    <mergeCell ref="AB28:AF28"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:AA29"/>
+    <mergeCell ref="AB29:AF29"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:AA30"/>
+    <mergeCell ref="AB30:AF30"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="AB31:AF31"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:AA32"/>
+    <mergeCell ref="AB32:AF32"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="O33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="W33:AA33"/>
+    <mergeCell ref="AB33:AF33"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="O34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="W34:AA34"/>
+    <mergeCell ref="AB34:AF34"/>
+    <mergeCell ref="C35:N35"/>
+    <mergeCell ref="O35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:AA35"/>
+    <mergeCell ref="AB35:AF35"/>
+    <mergeCell ref="C36:N36"/>
+    <mergeCell ref="O36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:AA36"/>
+    <mergeCell ref="AB36:AF36"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="AB37:AF37"/>
+    <mergeCell ref="O40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:AA40"/>
+    <mergeCell ref="AB40:AF40"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:AA41"/>
+    <mergeCell ref="AB41:AF41"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="O38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:AA38"/>
+    <mergeCell ref="AB38:AF38"/>
+    <mergeCell ref="C39:N39"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:AA39"/>
+    <mergeCell ref="AB39:AF39"/>
+    <mergeCell ref="O44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:AA44"/>
+    <mergeCell ref="AB44:AF44"/>
+    <mergeCell ref="O45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:AA45"/>
+    <mergeCell ref="AB45:AF45"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:AA42"/>
+    <mergeCell ref="AB42:AF42"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:AA43"/>
+    <mergeCell ref="AB43:AF43"/>
+    <mergeCell ref="O46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:AA46"/>
+    <mergeCell ref="AB46:AF46"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:AA47"/>
+    <mergeCell ref="AB47:AF47"/>
+    <mergeCell ref="C48:N48"/>
+    <mergeCell ref="O48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:AA48"/>
+    <mergeCell ref="AB48:AF48"/>
+    <mergeCell ref="C49:N49"/>
+    <mergeCell ref="O49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:AA49"/>
+    <mergeCell ref="AB49:AF49"/>
+    <mergeCell ref="C50:N50"/>
+    <mergeCell ref="O50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="W50:AA50"/>
+    <mergeCell ref="AB50:AF50"/>
+    <mergeCell ref="C51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="W51:AA51"/>
+    <mergeCell ref="AB51:AF51"/>
     <mergeCell ref="AB54:AF54"/>
     <mergeCell ref="D55:I55"/>
     <mergeCell ref="J55:N55"/>
@@ -22460,245 +22624,77 @@
     <mergeCell ref="O54:S54"/>
     <mergeCell ref="T54:V54"/>
     <mergeCell ref="W54:Z54"/>
-    <mergeCell ref="C50:N50"/>
-    <mergeCell ref="O50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="W50:AA50"/>
-    <mergeCell ref="AB50:AF50"/>
-    <mergeCell ref="C51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="W51:AA51"/>
-    <mergeCell ref="AB51:AF51"/>
-    <mergeCell ref="C48:N48"/>
-    <mergeCell ref="O48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:AA48"/>
-    <mergeCell ref="AB48:AF48"/>
-    <mergeCell ref="C49:N49"/>
-    <mergeCell ref="O49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:AA49"/>
-    <mergeCell ref="AB49:AF49"/>
-    <mergeCell ref="O46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:AA46"/>
-    <mergeCell ref="AB46:AF46"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="O47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:AA47"/>
-    <mergeCell ref="AB47:AF47"/>
-    <mergeCell ref="O44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:AA44"/>
-    <mergeCell ref="AB44:AF44"/>
-    <mergeCell ref="O45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:AA45"/>
-    <mergeCell ref="AB45:AF45"/>
-    <mergeCell ref="O42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:AA42"/>
-    <mergeCell ref="AB42:AF42"/>
-    <mergeCell ref="O43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:AA43"/>
-    <mergeCell ref="AB43:AF43"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:AA41"/>
-    <mergeCell ref="AB41:AF41"/>
-    <mergeCell ref="C38:N38"/>
-    <mergeCell ref="O38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:AA38"/>
-    <mergeCell ref="AB38:AF38"/>
-    <mergeCell ref="C39:N39"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:AA39"/>
-    <mergeCell ref="AB39:AF39"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="O37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:AA37"/>
-    <mergeCell ref="AB37:AF37"/>
-    <mergeCell ref="O40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:AA40"/>
-    <mergeCell ref="AB40:AF40"/>
-    <mergeCell ref="C35:N35"/>
-    <mergeCell ref="O35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:AA35"/>
-    <mergeCell ref="AB35:AF35"/>
-    <mergeCell ref="C36:N36"/>
-    <mergeCell ref="O36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:AA36"/>
-    <mergeCell ref="AB36:AF36"/>
-    <mergeCell ref="C33:N33"/>
-    <mergeCell ref="O33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="W33:AA33"/>
-    <mergeCell ref="AB33:AF33"/>
-    <mergeCell ref="C34:N34"/>
-    <mergeCell ref="O34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="W34:AA34"/>
-    <mergeCell ref="AB34:AF34"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="AB31:AF31"/>
-    <mergeCell ref="C32:N32"/>
-    <mergeCell ref="O32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:AA32"/>
-    <mergeCell ref="AB32:AF32"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:AA29"/>
-    <mergeCell ref="AB29:AF29"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="O30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:AA30"/>
-    <mergeCell ref="AB30:AF30"/>
-    <mergeCell ref="C27:N27"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="W27:AA27"/>
-    <mergeCell ref="AB27:AF27"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:AA28"/>
-    <mergeCell ref="AB28:AF28"/>
-    <mergeCell ref="C25:N25"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:AA25"/>
-    <mergeCell ref="AB25:AF25"/>
-    <mergeCell ref="C26:N26"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="W26:AA26"/>
-    <mergeCell ref="AB26:AF26"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:AA23"/>
-    <mergeCell ref="AB23:AF23"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W24:AA24"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="W20:AA20"/>
-    <mergeCell ref="AB20:AF20"/>
-    <mergeCell ref="C22:N22"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="AB22:AF22"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:AA18"/>
-    <mergeCell ref="AB18:AF18"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="W19:AA19"/>
-    <mergeCell ref="AB19:AF19"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:AA17"/>
-    <mergeCell ref="AB17:AF17"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:AA14"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="AB15:AF15"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:AA12"/>
-    <mergeCell ref="AB12:AF12"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="AB11:AF11"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="O57:S57"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="W57:Z57"/>
+    <mergeCell ref="AB57:AF57"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="O56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="W56:Z56"/>
+    <mergeCell ref="AB56:AF56"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="J59:N59"/>
+    <mergeCell ref="O59:S59"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="W59:Z59"/>
+    <mergeCell ref="AB59:AF59"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="J58:N58"/>
+    <mergeCell ref="O58:S58"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="W58:Z58"/>
+    <mergeCell ref="AB58:AF58"/>
+    <mergeCell ref="C62:I62"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="T62:V62"/>
+    <mergeCell ref="W62:AA62"/>
+    <mergeCell ref="AB62:AF62"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:N60"/>
+    <mergeCell ref="O60:S60"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="W60:Z60"/>
+    <mergeCell ref="AB60:AF60"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="O64:S64"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="W64:AA64"/>
+    <mergeCell ref="AB64:AF64"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="O63:S63"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="W63:AA63"/>
+    <mergeCell ref="AB63:AF63"/>
+    <mergeCell ref="C67:V67"/>
+    <mergeCell ref="W67:AA67"/>
+    <mergeCell ref="AB67:AF67"/>
+    <mergeCell ref="C68:V68"/>
+    <mergeCell ref="W68:AA68"/>
+    <mergeCell ref="AB68:AF68"/>
+    <mergeCell ref="C65:I65"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="W65:AA65"/>
+    <mergeCell ref="AB65:AF65"/>
+    <mergeCell ref="D72:M72"/>
+    <mergeCell ref="O72:V72"/>
+    <mergeCell ref="W72:AA72"/>
+    <mergeCell ref="AB72:AF72"/>
+    <mergeCell ref="C69:V69"/>
+    <mergeCell ref="W69:AA69"/>
+    <mergeCell ref="AB69:AF69"/>
+    <mergeCell ref="D71:M71"/>
+    <mergeCell ref="O71:V71"/>
+    <mergeCell ref="W71:AA71"/>
+    <mergeCell ref="AB71:AF71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
